--- a/doc/指令.xlsx
+++ b/doc/指令.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyun\Documents\Code\THCO-MIPS\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="指令总结" sheetId="1" r:id="rId4"/>
-    <sheet name="寄存器编址" sheetId="2" r:id="rId5"/>
-    <sheet name="ALU操作码" sheetId="3" r:id="rId6"/>
-    <sheet name="控制信号 - 控制信号" sheetId="4" r:id="rId7"/>
+    <sheet name="指令总结 (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="指令总结" sheetId="1" r:id="rId2"/>
+    <sheet name="寄存器编址" sheetId="2" r:id="rId3"/>
+    <sheet name="ALU操作码" sheetId="3" r:id="rId4"/>
+    <sheet name="控制信号 - 控制信号" sheetId="4" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="184">
   <si>
     <t>编号</t>
   </si>
@@ -563,40 +572,55 @@
   </si>
   <si>
     <t>写寄存器堆信号，连接到寄存器堆写使能端口，表示WB段是否要写寄存器堆</t>
+  </si>
+  <si>
+    <t>R[x] &lt;= R[x] + sgn_ext(imm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="13"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -791,152 +815,275 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="59">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffd0ddef"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffe9eef7"/>
-      <rgbColor rgb="ffed7d31"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFD0DDEF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFE9EEF7"/>
+      <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -1138,7 +1285,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1157,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,9 +1555,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1427,7 +1580,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1446,7 +1599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1472,7 +1625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,7 +1651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,7 +1677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1576,7 +1729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1602,7 +1755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1628,7 +1781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1654,7 +1807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1680,7 +1833,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,9 +1846,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1709,7 +1868,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1728,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1758,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1784,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1810,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1836,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1862,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1888,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1914,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1940,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1966,7 +2125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1979,1238 +2138,1244 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="11" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.35156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.2891" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1562" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.4375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85156" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" t="s" s="2">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="35"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="14" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" t="s" s="6">
+    <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38">
+        <v>2</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38">
+        <v>10</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
+        <v>3</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:16" s="41" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>20</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" spans="1:16" s="41" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52">
+        <v>29</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="55"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+    </row>
+    <row r="14" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
+        <v>5</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38">
+        <v>4</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
+        <v>11</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42">
+        <v>16</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+    </row>
+    <row r="22" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <v>12</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+    </row>
+    <row r="23" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38">
+        <v>13</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="J23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+    </row>
+    <row r="24" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42">
+        <v>18</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+    </row>
+    <row r="25" spans="1:16" s="41" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="45">
+        <v>21</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="47"/>
+      <c r="J25" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+    </row>
+    <row r="26" spans="1:16" s="41" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57">
+        <v>22</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="58"/>
+      <c r="J26" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+    </row>
+    <row r="27" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42">
+        <v>23</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+    </row>
+    <row r="28" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="38">
+        <v>24</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+    </row>
+    <row r="29" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42">
+        <v>25</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+    </row>
+    <row r="30" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
+        <v>17</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+    </row>
+    <row r="31" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="38">
+        <v>19</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="I32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" t="s" s="6">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s" s="6">
+      <c r="L35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s" s="8">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" ht="17.5" customHeight="1">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" ht="14" customHeight="1">
-      <c r="A14" s="10">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s" s="6">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s" s="6">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s" s="6">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s" s="6">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s" s="6">
-        <v>70</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" ht="14" customHeight="1">
-      <c r="A15" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s" s="8">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" ht="14" customHeight="1">
-      <c r="A16" s="10">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s" s="6">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s" s="6">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" s="7">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s" s="8">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="J17" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" s="10">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s" s="6">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s" s="6">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s" s="6">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s" s="6">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s" s="6">
-        <v>82</v>
-      </c>
-      <c r="J18" t="s" s="6">
-        <v>87</v>
-      </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" ht="14" customHeight="1">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s" s="8">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="J19" t="s" s="8">
-        <v>87</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" ht="14" customHeight="1">
-      <c r="A20" s="10">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s" s="6">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s" s="6">
-        <v>92</v>
-      </c>
-      <c r="E20" t="s" s="6">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" t="s" s="6">
-        <v>95</v>
-      </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" ht="14" customHeight="1">
-      <c r="A21" s="7">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="E21" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" ht="14" customHeight="1">
-      <c r="A22" s="10">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s" s="6">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s" s="6">
-        <v>101</v>
-      </c>
-      <c r="E22" t="s" s="6">
-        <v>102</v>
-      </c>
-      <c r="F22" t="s" s="6">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" t="s" s="6">
-        <v>103</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" ht="14" customHeight="1">
-      <c r="A23" s="7">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="F23" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s" s="14">
-        <v>107</v>
-      </c>
-      <c r="H23" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" ht="14" customHeight="1">
-      <c r="A24" s="10">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s" s="6">
-        <v>109</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s" s="6">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s" s="6">
-        <v>111</v>
-      </c>
-      <c r="F24" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="G24" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" t="s" s="6">
-        <v>112</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" ht="14.5" customHeight="1">
-      <c r="A25" s="15">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s" s="16">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s" s="16">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s" s="16">
-        <v>114</v>
-      </c>
-      <c r="E25" t="s" s="16">
-        <v>115</v>
-      </c>
-      <c r="F25" t="s" s="16">
-        <v>74</v>
-      </c>
-      <c r="G25" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" t="s" s="16">
-        <v>59</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-    </row>
-    <row r="26" ht="14.5" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" t="s" s="19">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="18"/>
-      <c r="J26" t="s" s="19">
-        <v>63</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-    </row>
-    <row r="27" ht="14" customHeight="1">
-      <c r="A27" s="7">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="F27" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="G27" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" ht="14" customHeight="1">
-      <c r="A28" s="10">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s" s="6">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s" s="6">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s" s="6">
-        <v>121</v>
-      </c>
-      <c r="F28" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" t="s" s="6">
-        <v>122</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" ht="14" customHeight="1">
-      <c r="A29" s="7">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="F29" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="G29" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" ht="14" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" t="s" s="6">
-        <v>60</v>
-      </c>
-      <c r="G30" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="H30" t="s" s="6">
-        <v>127</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" ht="17" customHeight="1">
-      <c r="A31" s="7">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="D31" t="s" s="8">
-        <v>129</v>
-      </c>
-      <c r="E31" t="s" s="8">
-        <v>130</v>
-      </c>
-      <c r="F31" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" ht="17" customHeight="1">
-      <c r="A32" s="10">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s" s="6">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s" s="6">
-        <v>128</v>
-      </c>
-      <c r="D32" t="s" s="6">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s" s="6">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s" s="6">
-        <v>136</v>
-      </c>
-      <c r="G32" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s" s="6">
-        <v>137</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" ht="17" customHeight="1">
-      <c r="A33" s="7">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="D33" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="F33" t="s" s="8">
-        <v>141</v>
-      </c>
-      <c r="G33" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" ht="17" customHeight="1">
-      <c r="A34" s="10">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s" s="6">
-        <v>142</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>128</v>
-      </c>
-      <c r="D34" t="s" s="6">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s" s="6">
-        <v>144</v>
-      </c>
-      <c r="F34" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s" s="20">
-        <v>145</v>
-      </c>
-      <c r="H34" t="s" s="6">
-        <v>137</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-    </row>
-    <row r="35" ht="14" customHeight="1">
-      <c r="A35" s="7">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" t="s" s="8">
-        <v>147</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L35">
+    <sortCondition ref="F2:F35"/>
+  </sortState>
   <mergeCells count="2">
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3218,190 +3383,1223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" ht="15.55" customHeight="1">
-      <c r="A2" t="s" s="23">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s" s="24">
-        <v>150</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>151</v>
-      </c>
-      <c r="B3" t="s" s="27">
+    <row r="1" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="35"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="26">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s" s="27">
-        <v>153</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="26">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s" s="27">
-        <v>155</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>156</v>
-      </c>
-      <c r="B6" t="s" s="27">
-        <v>157</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="26">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s" s="27">
-        <v>159</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="26">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s" s="27">
-        <v>161</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="26">
-        <v>162</v>
-      </c>
-      <c r="B9" t="s" s="27">
-        <v>163</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="26">
-        <v>164</v>
-      </c>
-      <c r="B10" t="s" s="27">
-        <v>165</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="26">
-        <v>166</v>
-      </c>
-      <c r="B11" t="s" s="27">
-        <v>167</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="26">
-        <v>168</v>
-      </c>
-      <c r="B12" t="s" s="27">
-        <v>169</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="26">
-        <v>170</v>
-      </c>
-      <c r="B13" t="s" s="27">
-        <v>171</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="26">
-        <v>172</v>
-      </c>
-      <c r="B14" t="s" s="27">
-        <v>173</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="26">
-        <v>174</v>
-      </c>
-      <c r="B15" t="s" s="27">
-        <v>175</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="L3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>22</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>29</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <mergeCells count="2">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3409,121 +4607,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="29" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="29" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="29" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="29" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="29" customWidth="1"/>
+    <col min="1" max="256" width="16.375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" ht="15.55" customHeight="1">
-      <c r="A2" t="s" s="23">
+    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s" s="24">
-        <v>146</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="26">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="27">
-        <v>176</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="26">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="26">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="26">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="26">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="26">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="26">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="26">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3531,156 +4797,271 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:G12"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="32" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="32" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="32" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="32" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="32" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="32" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="32" customWidth="1"/>
+    <col min="1" max="256" width="16.375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6.65" customHeight="1"/>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="33">
+    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="256" width="16.375" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" t="s" s="34">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
+      <c r="B3" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C3" t="s" s="34">
+      <c r="C3" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="D3" t="s" s="34">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="34">
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="33">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="34">
+      <c r="C4" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D4" t="s" s="34">
+      <c r="D4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="34">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="34">
+      <c r="C5" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="D5" t="s" s="34">
+      <c r="D5" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/doc/指令.xlsx
+++ b/doc/指令.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="指令总结 (2)" sheetId="5" r:id="rId1"/>
     <sheet name="指令总结" sheetId="1" r:id="rId2"/>
     <sheet name="寄存器编址" sheetId="2" r:id="rId3"/>
     <sheet name="ALU操作码" sheetId="3" r:id="rId4"/>
-    <sheet name="控制信号 - 控制信号" sheetId="4" r:id="rId5"/>
+    <sheet name="测试" sheetId="6" r:id="rId5"/>
+    <sheet name="控制信号 - 控制信号" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="251">
   <si>
     <t>编号</t>
   </si>
@@ -547,15 +548,6 @@
     <t>1100</t>
   </si>
   <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>加</t>
-  </si>
-  <si>
     <t>位数</t>
   </si>
   <si>
@@ -575,6 +567,498 @@
   </si>
   <si>
     <t>R[x] &lt;= R[x] + sgn_ext(imm)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前计算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LT</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MP</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP &lt;= R[y]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI R2 0x4</t>
+  </si>
+  <si>
+    <r>
+      <t>10100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00000000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术右移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTI R1 0x02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTI R3 0xff</t>
+  </si>
+  <si>
+    <t>SLTI R3 0x04</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">负数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">正数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">正数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">负数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTI R1 0xe0</t>
+  </si>
+  <si>
+    <t>CMPI R3 0x10</t>
+  </si>
+  <si>
+    <t>AND R2 R3</t>
+  </si>
+  <si>
+    <t>LI R2 0x05</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f fe</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT R1 R1</t>
+  </si>
+  <si>
+    <t>LI R1 0x1</t>
+  </si>
+  <si>
+    <t>LI R3 0x7</t>
+  </si>
+  <si>
+    <t>OR R2 R1</t>
+  </si>
+  <si>
+    <t>SLL R2 R2 0x0</t>
+  </si>
+  <si>
+    <t>SRA R3 R3 0x1</t>
+  </si>
+  <si>
+    <t>SLL R2 R2 0x2</t>
+  </si>
+  <si>
+    <t>4位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDIU3 R0 R1 0x8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff f8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA R1 R1 0x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff f1100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMPI R3 0x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBU R3 R2 R4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBU R2 R3 R4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADDU R2 R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> R4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 0x2</t>
+  </si>
+  <si>
+    <t>BEQZ R1 0x2</t>
+  </si>
+  <si>
+    <t>BTEQZ 0x6</t>
+  </si>
+  <si>
+    <r>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(删掉)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDIU3 R1 R1 0x1</t>
+  </si>
+  <si>
+    <t>ADDIU3 R1 R1 0x2</t>
+  </si>
+  <si>
+    <t>ADDIU3 R1 R1 0x4</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0-11</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BEQZ R0 0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>110-111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>1100</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 0x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMPI R1 0xB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTSP ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +1066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -622,8 +1106,49 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF222222"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,8 +1179,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -813,13 +1344,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -910,9 +1450,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -921,18 +1458,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -985,9 +1510,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -996,6 +1518,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2157,10 +2736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV35"/>
+  <dimension ref="A1:IX215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2168,1146 +2747,2570 @@
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
-    <col min="11" max="256" width="8.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:258" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="H1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="IW1" s="1"/>
+      <c r="IX1" s="1"/>
+    </row>
+    <row r="2" spans="1:258" s="59" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="K2" s="39"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="36"/>
+      <c r="BK2" s="36"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="36"/>
+      <c r="BP2" s="36"/>
+      <c r="BQ2" s="36"/>
+      <c r="BR2" s="36"/>
+      <c r="BS2" s="36"/>
+      <c r="BT2" s="36"/>
+      <c r="BU2" s="36"/>
+      <c r="BV2" s="36"/>
+      <c r="BW2" s="36"/>
+      <c r="BX2" s="36"/>
+      <c r="BY2" s="36"/>
+      <c r="BZ2" s="36"/>
+      <c r="CA2" s="36"/>
+      <c r="CB2" s="36"/>
+      <c r="CC2" s="36"/>
+      <c r="CD2" s="36"/>
+      <c r="CE2" s="36"/>
+      <c r="CF2" s="36"/>
+      <c r="CG2" s="36"/>
+      <c r="CH2" s="36"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="36"/>
+      <c r="CK2" s="36"/>
+      <c r="CL2" s="36"/>
+      <c r="CM2" s="36"/>
+      <c r="CN2" s="36"/>
+      <c r="CO2" s="36"/>
+      <c r="CP2" s="36"/>
+      <c r="CQ2" s="36"/>
+      <c r="CR2" s="36"/>
+      <c r="CS2" s="36"/>
+      <c r="CT2" s="36"/>
+      <c r="CU2" s="36"/>
+      <c r="CV2" s="36"/>
+      <c r="CW2" s="36"/>
+      <c r="CX2" s="36"/>
+      <c r="CY2" s="36"/>
+      <c r="CZ2" s="36"/>
+      <c r="DA2" s="36"/>
+      <c r="DB2" s="36"/>
+      <c r="DC2" s="36"/>
+      <c r="DD2" s="36"/>
+      <c r="DE2" s="36"/>
+      <c r="DF2" s="36"/>
+      <c r="DG2" s="36"/>
+      <c r="DH2" s="36"/>
+      <c r="DI2" s="36"/>
+      <c r="DJ2" s="36"/>
+      <c r="DK2" s="36"/>
+      <c r="DL2" s="36"/>
+      <c r="DM2" s="36"/>
+      <c r="DN2" s="36"/>
+      <c r="DO2" s="36"/>
+      <c r="DP2" s="36"/>
+      <c r="DQ2" s="36"/>
+      <c r="DR2" s="36"/>
+      <c r="DS2" s="36"/>
+      <c r="DT2" s="36"/>
+      <c r="DU2" s="36"/>
+      <c r="DV2" s="36"/>
+      <c r="DW2" s="36"/>
+      <c r="DX2" s="36"/>
+      <c r="DY2" s="36"/>
+      <c r="DZ2" s="36"/>
+      <c r="EA2" s="36"/>
+      <c r="EB2" s="36"/>
+      <c r="EC2" s="36"/>
+      <c r="ED2" s="36"/>
+      <c r="EE2" s="36"/>
+      <c r="EF2" s="36"/>
+      <c r="EG2" s="36"/>
+      <c r="EH2" s="36"/>
+      <c r="EI2" s="36"/>
+      <c r="EJ2" s="36"/>
+      <c r="EK2" s="36"/>
+      <c r="EL2" s="36"/>
+      <c r="EM2" s="36"/>
+      <c r="EN2" s="36"/>
+      <c r="EO2" s="36"/>
+      <c r="EP2" s="36"/>
+      <c r="EQ2" s="36"/>
+      <c r="ER2" s="36"/>
+      <c r="ES2" s="36"/>
+      <c r="ET2" s="36"/>
+      <c r="EU2" s="36"/>
+      <c r="EV2" s="36"/>
+      <c r="EW2" s="36"/>
+      <c r="EX2" s="36"/>
+      <c r="EY2" s="36"/>
+      <c r="EZ2" s="36"/>
+      <c r="FA2" s="36"/>
+      <c r="FB2" s="36"/>
+      <c r="FC2" s="36"/>
+      <c r="FD2" s="36"/>
+      <c r="FE2" s="36"/>
+      <c r="FF2" s="36"/>
+      <c r="FG2" s="36"/>
+      <c r="FH2" s="36"/>
+      <c r="FI2" s="36"/>
+      <c r="FJ2" s="36"/>
+      <c r="FK2" s="36"/>
+      <c r="FL2" s="36"/>
+      <c r="FM2" s="36"/>
+      <c r="FN2" s="36"/>
+      <c r="FO2" s="36"/>
+      <c r="FP2" s="36"/>
+      <c r="FQ2" s="36"/>
+      <c r="FR2" s="36"/>
+      <c r="FS2" s="36"/>
+      <c r="FT2" s="36"/>
+      <c r="FU2" s="36"/>
+      <c r="FV2" s="36"/>
+      <c r="FW2" s="36"/>
+      <c r="FX2" s="36"/>
+      <c r="FY2" s="36"/>
+      <c r="FZ2" s="36"/>
+      <c r="GA2" s="36"/>
+      <c r="GB2" s="36"/>
+      <c r="GC2" s="36"/>
+      <c r="GD2" s="36"/>
+      <c r="GE2" s="36"/>
+      <c r="GF2" s="36"/>
+      <c r="GG2" s="36"/>
+      <c r="GH2" s="36"/>
+      <c r="GI2" s="36"/>
+      <c r="GJ2" s="36"/>
+      <c r="GK2" s="36"/>
+      <c r="GL2" s="36"/>
+      <c r="GM2" s="36"/>
+      <c r="GN2" s="36"/>
+      <c r="GO2" s="36"/>
+      <c r="GP2" s="36"/>
+      <c r="GQ2" s="36"/>
+      <c r="GR2" s="36"/>
+      <c r="GS2" s="36"/>
+      <c r="GT2" s="36"/>
+      <c r="GU2" s="36"/>
+      <c r="GV2" s="36"/>
+      <c r="GW2" s="36"/>
+      <c r="GX2" s="36"/>
+      <c r="GY2" s="36"/>
+      <c r="GZ2" s="36"/>
+      <c r="HA2" s="36"/>
+      <c r="HB2" s="36"/>
+      <c r="HC2" s="36"/>
+      <c r="HD2" s="36"/>
+      <c r="HE2" s="36"/>
+      <c r="HF2" s="36"/>
+      <c r="HG2" s="36"/>
+      <c r="HH2" s="36"/>
+      <c r="HI2" s="36"/>
+      <c r="HJ2" s="36"/>
+      <c r="HK2" s="36"/>
+      <c r="HL2" s="36"/>
+      <c r="HM2" s="36"/>
+      <c r="HN2" s="36"/>
+      <c r="HO2" s="36"/>
+      <c r="HP2" s="36"/>
+      <c r="HQ2" s="36"/>
+      <c r="HR2" s="36"/>
+      <c r="HS2" s="36"/>
+      <c r="HT2" s="36"/>
+      <c r="HU2" s="36"/>
+      <c r="HV2" s="36"/>
+      <c r="HW2" s="36"/>
+      <c r="HX2" s="36"/>
+      <c r="HY2" s="36"/>
+      <c r="HZ2" s="36"/>
+      <c r="IA2" s="36"/>
+      <c r="IB2" s="36"/>
+      <c r="IC2" s="36"/>
+      <c r="ID2" s="36"/>
+      <c r="IE2" s="36"/>
+      <c r="IF2" s="36"/>
+      <c r="IG2" s="36"/>
+      <c r="IH2" s="36"/>
+      <c r="II2" s="36"/>
+      <c r="IJ2" s="36"/>
+      <c r="IK2" s="36"/>
+      <c r="IL2" s="36"/>
+      <c r="IM2" s="36"/>
+      <c r="IN2" s="36"/>
+      <c r="IO2" s="36"/>
+      <c r="IP2" s="36"/>
+      <c r="IQ2" s="36"/>
+      <c r="IR2" s="36"/>
+      <c r="IS2" s="36"/>
+      <c r="IT2" s="36"/>
+      <c r="IU2" s="36"/>
+      <c r="IV2" s="36"/>
+    </row>
+    <row r="3" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="37">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="39"/>
+      <c r="K3" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="L3" s="38"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
+      <c r="BV3" s="36"/>
+      <c r="BW3" s="36"/>
+      <c r="BX3" s="36"/>
+      <c r="BY3" s="36"/>
+      <c r="BZ3" s="36"/>
+      <c r="CA3" s="36"/>
+      <c r="CB3" s="36"/>
+      <c r="CC3" s="36"/>
+      <c r="CD3" s="36"/>
+      <c r="CE3" s="36"/>
+      <c r="CF3" s="36"/>
+      <c r="CG3" s="36"/>
+      <c r="CH3" s="36"/>
+      <c r="CI3" s="36"/>
+      <c r="CJ3" s="36"/>
+      <c r="CK3" s="36"/>
+      <c r="CL3" s="36"/>
+      <c r="CM3" s="36"/>
+      <c r="CN3" s="36"/>
+      <c r="CO3" s="36"/>
+      <c r="CP3" s="36"/>
+      <c r="CQ3" s="36"/>
+      <c r="CR3" s="36"/>
+      <c r="CS3" s="36"/>
+      <c r="CT3" s="36"/>
+      <c r="CU3" s="36"/>
+      <c r="CV3" s="36"/>
+      <c r="CW3" s="36"/>
+      <c r="CX3" s="36"/>
+      <c r="CY3" s="36"/>
+      <c r="CZ3" s="36"/>
+      <c r="DA3" s="36"/>
+      <c r="DB3" s="36"/>
+      <c r="DC3" s="36"/>
+      <c r="DD3" s="36"/>
+      <c r="DE3" s="36"/>
+      <c r="DF3" s="36"/>
+      <c r="DG3" s="36"/>
+      <c r="DH3" s="36"/>
+      <c r="DI3" s="36"/>
+      <c r="DJ3" s="36"/>
+      <c r="DK3" s="36"/>
+      <c r="DL3" s="36"/>
+      <c r="DM3" s="36"/>
+      <c r="DN3" s="36"/>
+      <c r="DO3" s="36"/>
+      <c r="DP3" s="36"/>
+      <c r="DQ3" s="36"/>
+      <c r="DR3" s="36"/>
+      <c r="DS3" s="36"/>
+      <c r="DT3" s="36"/>
+      <c r="DU3" s="36"/>
+      <c r="DV3" s="36"/>
+      <c r="DW3" s="36"/>
+      <c r="DX3" s="36"/>
+      <c r="DY3" s="36"/>
+      <c r="DZ3" s="36"/>
+      <c r="EA3" s="36"/>
+      <c r="EB3" s="36"/>
+      <c r="EC3" s="36"/>
+      <c r="ED3" s="36"/>
+      <c r="EE3" s="36"/>
+      <c r="EF3" s="36"/>
+      <c r="EG3" s="36"/>
+      <c r="EH3" s="36"/>
+      <c r="EI3" s="36"/>
+      <c r="EJ3" s="36"/>
+      <c r="EK3" s="36"/>
+      <c r="EL3" s="36"/>
+      <c r="EM3" s="36"/>
+      <c r="EN3" s="36"/>
+      <c r="EO3" s="36"/>
+      <c r="EP3" s="36"/>
+      <c r="EQ3" s="36"/>
+      <c r="ER3" s="36"/>
+      <c r="ES3" s="36"/>
+      <c r="ET3" s="36"/>
+      <c r="EU3" s="36"/>
+      <c r="EV3" s="36"/>
+      <c r="EW3" s="36"/>
+      <c r="EX3" s="36"/>
+      <c r="EY3" s="36"/>
+      <c r="EZ3" s="36"/>
+      <c r="FA3" s="36"/>
+      <c r="FB3" s="36"/>
+      <c r="FC3" s="36"/>
+      <c r="FD3" s="36"/>
+      <c r="FE3" s="36"/>
+      <c r="FF3" s="36"/>
+      <c r="FG3" s="36"/>
+      <c r="FH3" s="36"/>
+      <c r="FI3" s="36"/>
+      <c r="FJ3" s="36"/>
+      <c r="FK3" s="36"/>
+      <c r="FL3" s="36"/>
+      <c r="FM3" s="36"/>
+      <c r="FN3" s="36"/>
+      <c r="FO3" s="36"/>
+      <c r="FP3" s="36"/>
+      <c r="FQ3" s="36"/>
+      <c r="FR3" s="36"/>
+      <c r="FS3" s="36"/>
+      <c r="FT3" s="36"/>
+      <c r="FU3" s="36"/>
+      <c r="FV3" s="36"/>
+      <c r="FW3" s="36"/>
+      <c r="FX3" s="36"/>
+      <c r="FY3" s="36"/>
+      <c r="FZ3" s="36"/>
+      <c r="GA3" s="36"/>
+      <c r="GB3" s="36"/>
+      <c r="GC3" s="36"/>
+      <c r="GD3" s="36"/>
+      <c r="GE3" s="36"/>
+      <c r="GF3" s="36"/>
+      <c r="GG3" s="36"/>
+      <c r="GH3" s="36"/>
+      <c r="GI3" s="36"/>
+      <c r="GJ3" s="36"/>
+      <c r="GK3" s="36"/>
+      <c r="GL3" s="36"/>
+      <c r="GM3" s="36"/>
+      <c r="GN3" s="36"/>
+      <c r="GO3" s="36"/>
+      <c r="GP3" s="36"/>
+      <c r="GQ3" s="36"/>
+      <c r="GR3" s="36"/>
+      <c r="GS3" s="36"/>
+      <c r="GT3" s="36"/>
+      <c r="GU3" s="36"/>
+      <c r="GV3" s="36"/>
+      <c r="GW3" s="36"/>
+      <c r="GX3" s="36"/>
+      <c r="GY3" s="36"/>
+      <c r="GZ3" s="36"/>
+      <c r="HA3" s="36"/>
+      <c r="HB3" s="36"/>
+      <c r="HC3" s="36"/>
+      <c r="HD3" s="36"/>
+      <c r="HE3" s="36"/>
+      <c r="HF3" s="36"/>
+      <c r="HG3" s="36"/>
+      <c r="HH3" s="36"/>
+      <c r="HI3" s="36"/>
+      <c r="HJ3" s="36"/>
+      <c r="HK3" s="36"/>
+      <c r="HL3" s="36"/>
+      <c r="HM3" s="36"/>
+      <c r="HN3" s="36"/>
+      <c r="HO3" s="36"/>
+      <c r="HP3" s="36"/>
+      <c r="HQ3" s="36"/>
+      <c r="HR3" s="36"/>
+      <c r="HS3" s="36"/>
+      <c r="HT3" s="36"/>
+      <c r="HU3" s="36"/>
+      <c r="HV3" s="36"/>
+      <c r="HW3" s="36"/>
+      <c r="HX3" s="36"/>
+      <c r="HY3" s="36"/>
+      <c r="HZ3" s="36"/>
+      <c r="IA3" s="36"/>
+      <c r="IB3" s="36"/>
+      <c r="IC3" s="36"/>
+      <c r="ID3" s="36"/>
+      <c r="IE3" s="36"/>
+      <c r="IF3" s="36"/>
+      <c r="IG3" s="36"/>
+      <c r="IH3" s="36"/>
+      <c r="II3" s="36"/>
+      <c r="IJ3" s="36"/>
+      <c r="IK3" s="36"/>
+      <c r="IL3" s="36"/>
+      <c r="IM3" s="36"/>
+      <c r="IN3" s="36"/>
+      <c r="IO3" s="36"/>
+      <c r="IP3" s="36"/>
+      <c r="IQ3" s="36"/>
+      <c r="IR3" s="36"/>
+      <c r="IS3" s="36"/>
+      <c r="IT3" s="36"/>
+      <c r="IU3" s="36"/>
+      <c r="IV3" s="36"/>
+    </row>
+    <row r="4" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="L4" s="34"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36"/>
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36"/>
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36"/>
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36"/>
+      <c r="DH4" s="36"/>
+      <c r="DI4" s="36"/>
+      <c r="DJ4" s="36"/>
+      <c r="DK4" s="36"/>
+      <c r="DL4" s="36"/>
+      <c r="DM4" s="36"/>
+      <c r="DN4" s="36"/>
+      <c r="DO4" s="36"/>
+      <c r="DP4" s="36"/>
+      <c r="DQ4" s="36"/>
+      <c r="DR4" s="36"/>
+      <c r="DS4" s="36"/>
+      <c r="DT4" s="36"/>
+      <c r="DU4" s="36"/>
+      <c r="DV4" s="36"/>
+      <c r="DW4" s="36"/>
+      <c r="DX4" s="36"/>
+      <c r="DY4" s="36"/>
+      <c r="DZ4" s="36"/>
+      <c r="EA4" s="36"/>
+      <c r="EB4" s="36"/>
+      <c r="EC4" s="36"/>
+      <c r="ED4" s="36"/>
+      <c r="EE4" s="36"/>
+      <c r="EF4" s="36"/>
+      <c r="EG4" s="36"/>
+      <c r="EH4" s="36"/>
+      <c r="EI4" s="36"/>
+      <c r="EJ4" s="36"/>
+      <c r="EK4" s="36"/>
+      <c r="EL4" s="36"/>
+      <c r="EM4" s="36"/>
+      <c r="EN4" s="36"/>
+      <c r="EO4" s="36"/>
+      <c r="EP4" s="36"/>
+      <c r="EQ4" s="36"/>
+      <c r="ER4" s="36"/>
+      <c r="ES4" s="36"/>
+      <c r="ET4" s="36"/>
+      <c r="EU4" s="36"/>
+      <c r="EV4" s="36"/>
+      <c r="EW4" s="36"/>
+      <c r="EX4" s="36"/>
+      <c r="EY4" s="36"/>
+      <c r="EZ4" s="36"/>
+      <c r="FA4" s="36"/>
+      <c r="FB4" s="36"/>
+      <c r="FC4" s="36"/>
+      <c r="FD4" s="36"/>
+      <c r="FE4" s="36"/>
+      <c r="FF4" s="36"/>
+      <c r="FG4" s="36"/>
+      <c r="FH4" s="36"/>
+      <c r="FI4" s="36"/>
+      <c r="FJ4" s="36"/>
+      <c r="FK4" s="36"/>
+      <c r="FL4" s="36"/>
+      <c r="FM4" s="36"/>
+      <c r="FN4" s="36"/>
+      <c r="FO4" s="36"/>
+      <c r="FP4" s="36"/>
+      <c r="FQ4" s="36"/>
+      <c r="FR4" s="36"/>
+      <c r="FS4" s="36"/>
+      <c r="FT4" s="36"/>
+      <c r="FU4" s="36"/>
+      <c r="FV4" s="36"/>
+      <c r="FW4" s="36"/>
+      <c r="FX4" s="36"/>
+      <c r="FY4" s="36"/>
+      <c r="FZ4" s="36"/>
+      <c r="GA4" s="36"/>
+      <c r="GB4" s="36"/>
+      <c r="GC4" s="36"/>
+      <c r="GD4" s="36"/>
+      <c r="GE4" s="36"/>
+      <c r="GF4" s="36"/>
+      <c r="GG4" s="36"/>
+      <c r="GH4" s="36"/>
+      <c r="GI4" s="36"/>
+      <c r="GJ4" s="36"/>
+      <c r="GK4" s="36"/>
+      <c r="GL4" s="36"/>
+      <c r="GM4" s="36"/>
+      <c r="GN4" s="36"/>
+      <c r="GO4" s="36"/>
+      <c r="GP4" s="36"/>
+      <c r="GQ4" s="36"/>
+      <c r="GR4" s="36"/>
+      <c r="GS4" s="36"/>
+      <c r="GT4" s="36"/>
+      <c r="GU4" s="36"/>
+      <c r="GV4" s="36"/>
+      <c r="GW4" s="36"/>
+      <c r="GX4" s="36"/>
+      <c r="GY4" s="36"/>
+      <c r="GZ4" s="36"/>
+      <c r="HA4" s="36"/>
+      <c r="HB4" s="36"/>
+      <c r="HC4" s="36"/>
+      <c r="HD4" s="36"/>
+      <c r="HE4" s="36"/>
+      <c r="HF4" s="36"/>
+      <c r="HG4" s="36"/>
+      <c r="HH4" s="36"/>
+      <c r="HI4" s="36"/>
+      <c r="HJ4" s="36"/>
+      <c r="HK4" s="36"/>
+      <c r="HL4" s="36"/>
+      <c r="HM4" s="36"/>
+      <c r="HN4" s="36"/>
+      <c r="HO4" s="36"/>
+      <c r="HP4" s="36"/>
+      <c r="HQ4" s="36"/>
+      <c r="HR4" s="36"/>
+      <c r="HS4" s="36"/>
+      <c r="HT4" s="36"/>
+      <c r="HU4" s="36"/>
+      <c r="HV4" s="36"/>
+      <c r="HW4" s="36"/>
+      <c r="HX4" s="36"/>
+      <c r="HY4" s="36"/>
+      <c r="HZ4" s="36"/>
+      <c r="IA4" s="36"/>
+      <c r="IB4" s="36"/>
+      <c r="IC4" s="36"/>
+      <c r="ID4" s="36"/>
+      <c r="IE4" s="36"/>
+      <c r="IF4" s="36"/>
+      <c r="IG4" s="36"/>
+      <c r="IH4" s="36"/>
+      <c r="II4" s="36"/>
+      <c r="IJ4" s="36"/>
+      <c r="IK4" s="36"/>
+      <c r="IL4" s="36"/>
+      <c r="IM4" s="36"/>
+      <c r="IN4" s="36"/>
+      <c r="IO4" s="36"/>
+      <c r="IP4" s="36"/>
+      <c r="IQ4" s="36"/>
+      <c r="IR4" s="36"/>
+      <c r="IS4" s="36"/>
+      <c r="IT4" s="36"/>
+      <c r="IU4" s="36"/>
+      <c r="IV4" s="36"/>
+    </row>
+    <row r="5" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="37">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="K5" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="L5" s="38"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36"/>
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="36"/>
+      <c r="CF5" s="36"/>
+      <c r="CG5" s="36"/>
+      <c r="CH5" s="36"/>
+      <c r="CI5" s="36"/>
+      <c r="CJ5" s="36"/>
+      <c r="CK5" s="36"/>
+      <c r="CL5" s="36"/>
+      <c r="CM5" s="36"/>
+      <c r="CN5" s="36"/>
+      <c r="CO5" s="36"/>
+      <c r="CP5" s="36"/>
+      <c r="CQ5" s="36"/>
+      <c r="CR5" s="36"/>
+      <c r="CS5" s="36"/>
+      <c r="CT5" s="36"/>
+      <c r="CU5" s="36"/>
+      <c r="CV5" s="36"/>
+      <c r="CW5" s="36"/>
+      <c r="CX5" s="36"/>
+      <c r="CY5" s="36"/>
+      <c r="CZ5" s="36"/>
+      <c r="DA5" s="36"/>
+      <c r="DB5" s="36"/>
+      <c r="DC5" s="36"/>
+      <c r="DD5" s="36"/>
+      <c r="DE5" s="36"/>
+      <c r="DF5" s="36"/>
+      <c r="DG5" s="36"/>
+      <c r="DH5" s="36"/>
+      <c r="DI5" s="36"/>
+      <c r="DJ5" s="36"/>
+      <c r="DK5" s="36"/>
+      <c r="DL5" s="36"/>
+      <c r="DM5" s="36"/>
+      <c r="DN5" s="36"/>
+      <c r="DO5" s="36"/>
+      <c r="DP5" s="36"/>
+      <c r="DQ5" s="36"/>
+      <c r="DR5" s="36"/>
+      <c r="DS5" s="36"/>
+      <c r="DT5" s="36"/>
+      <c r="DU5" s="36"/>
+      <c r="DV5" s="36"/>
+      <c r="DW5" s="36"/>
+      <c r="DX5" s="36"/>
+      <c r="DY5" s="36"/>
+      <c r="DZ5" s="36"/>
+      <c r="EA5" s="36"/>
+      <c r="EB5" s="36"/>
+      <c r="EC5" s="36"/>
+      <c r="ED5" s="36"/>
+      <c r="EE5" s="36"/>
+      <c r="EF5" s="36"/>
+      <c r="EG5" s="36"/>
+      <c r="EH5" s="36"/>
+      <c r="EI5" s="36"/>
+      <c r="EJ5" s="36"/>
+      <c r="EK5" s="36"/>
+      <c r="EL5" s="36"/>
+      <c r="EM5" s="36"/>
+      <c r="EN5" s="36"/>
+      <c r="EO5" s="36"/>
+      <c r="EP5" s="36"/>
+      <c r="EQ5" s="36"/>
+      <c r="ER5" s="36"/>
+      <c r="ES5" s="36"/>
+      <c r="ET5" s="36"/>
+      <c r="EU5" s="36"/>
+      <c r="EV5" s="36"/>
+      <c r="EW5" s="36"/>
+      <c r="EX5" s="36"/>
+      <c r="EY5" s="36"/>
+      <c r="EZ5" s="36"/>
+      <c r="FA5" s="36"/>
+      <c r="FB5" s="36"/>
+      <c r="FC5" s="36"/>
+      <c r="FD5" s="36"/>
+      <c r="FE5" s="36"/>
+      <c r="FF5" s="36"/>
+      <c r="FG5" s="36"/>
+      <c r="FH5" s="36"/>
+      <c r="FI5" s="36"/>
+      <c r="FJ5" s="36"/>
+      <c r="FK5" s="36"/>
+      <c r="FL5" s="36"/>
+      <c r="FM5" s="36"/>
+      <c r="FN5" s="36"/>
+      <c r="FO5" s="36"/>
+      <c r="FP5" s="36"/>
+      <c r="FQ5" s="36"/>
+      <c r="FR5" s="36"/>
+      <c r="FS5" s="36"/>
+      <c r="FT5" s="36"/>
+      <c r="FU5" s="36"/>
+      <c r="FV5" s="36"/>
+      <c r="FW5" s="36"/>
+      <c r="FX5" s="36"/>
+      <c r="FY5" s="36"/>
+      <c r="FZ5" s="36"/>
+      <c r="GA5" s="36"/>
+      <c r="GB5" s="36"/>
+      <c r="GC5" s="36"/>
+      <c r="GD5" s="36"/>
+      <c r="GE5" s="36"/>
+      <c r="GF5" s="36"/>
+      <c r="GG5" s="36"/>
+      <c r="GH5" s="36"/>
+      <c r="GI5" s="36"/>
+      <c r="GJ5" s="36"/>
+      <c r="GK5" s="36"/>
+      <c r="GL5" s="36"/>
+      <c r="GM5" s="36"/>
+      <c r="GN5" s="36"/>
+      <c r="GO5" s="36"/>
+      <c r="GP5" s="36"/>
+      <c r="GQ5" s="36"/>
+      <c r="GR5" s="36"/>
+      <c r="GS5" s="36"/>
+      <c r="GT5" s="36"/>
+      <c r="GU5" s="36"/>
+      <c r="GV5" s="36"/>
+      <c r="GW5" s="36"/>
+      <c r="GX5" s="36"/>
+      <c r="GY5" s="36"/>
+      <c r="GZ5" s="36"/>
+      <c r="HA5" s="36"/>
+      <c r="HB5" s="36"/>
+      <c r="HC5" s="36"/>
+      <c r="HD5" s="36"/>
+      <c r="HE5" s="36"/>
+      <c r="HF5" s="36"/>
+      <c r="HG5" s="36"/>
+      <c r="HH5" s="36"/>
+      <c r="HI5" s="36"/>
+      <c r="HJ5" s="36"/>
+      <c r="HK5" s="36"/>
+      <c r="HL5" s="36"/>
+      <c r="HM5" s="36"/>
+      <c r="HN5" s="36"/>
+      <c r="HO5" s="36"/>
+      <c r="HP5" s="36"/>
+      <c r="HQ5" s="36"/>
+      <c r="HR5" s="36"/>
+      <c r="HS5" s="36"/>
+      <c r="HT5" s="36"/>
+      <c r="HU5" s="36"/>
+      <c r="HV5" s="36"/>
+      <c r="HW5" s="36"/>
+      <c r="HX5" s="36"/>
+      <c r="HY5" s="36"/>
+      <c r="HZ5" s="36"/>
+      <c r="IA5" s="36"/>
+      <c r="IB5" s="36"/>
+      <c r="IC5" s="36"/>
+      <c r="ID5" s="36"/>
+      <c r="IE5" s="36"/>
+      <c r="IF5" s="36"/>
+      <c r="IG5" s="36"/>
+      <c r="IH5" s="36"/>
+      <c r="II5" s="36"/>
+      <c r="IJ5" s="36"/>
+      <c r="IK5" s="36"/>
+      <c r="IL5" s="36"/>
+      <c r="IM5" s="36"/>
+      <c r="IN5" s="36"/>
+      <c r="IO5" s="36"/>
+      <c r="IP5" s="36"/>
+      <c r="IQ5" s="36"/>
+      <c r="IR5" s="36"/>
+      <c r="IS5" s="36"/>
+      <c r="IT5" s="36"/>
+      <c r="IU5" s="36"/>
+      <c r="IV5" s="36"/>
+    </row>
+    <row r="6" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="37">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="K6" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="36"/>
+      <c r="BN6" s="36"/>
+      <c r="BO6" s="36"/>
+      <c r="BP6" s="36"/>
+      <c r="BQ6" s="36"/>
+      <c r="BR6" s="36"/>
+      <c r="BS6" s="36"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="36"/>
+      <c r="CA6" s="36"/>
+      <c r="CB6" s="36"/>
+      <c r="CC6" s="36"/>
+      <c r="CD6" s="36"/>
+      <c r="CE6" s="36"/>
+      <c r="CF6" s="36"/>
+      <c r="CG6" s="36"/>
+      <c r="CH6" s="36"/>
+      <c r="CI6" s="36"/>
+      <c r="CJ6" s="36"/>
+      <c r="CK6" s="36"/>
+      <c r="CL6" s="36"/>
+      <c r="CM6" s="36"/>
+      <c r="CN6" s="36"/>
+      <c r="CO6" s="36"/>
+      <c r="CP6" s="36"/>
+      <c r="CQ6" s="36"/>
+      <c r="CR6" s="36"/>
+      <c r="CS6" s="36"/>
+      <c r="CT6" s="36"/>
+      <c r="CU6" s="36"/>
+      <c r="CV6" s="36"/>
+      <c r="CW6" s="36"/>
+      <c r="CX6" s="36"/>
+      <c r="CY6" s="36"/>
+      <c r="CZ6" s="36"/>
+      <c r="DA6" s="36"/>
+      <c r="DB6" s="36"/>
+      <c r="DC6" s="36"/>
+      <c r="DD6" s="36"/>
+      <c r="DE6" s="36"/>
+      <c r="DF6" s="36"/>
+      <c r="DG6" s="36"/>
+      <c r="DH6" s="36"/>
+      <c r="DI6" s="36"/>
+      <c r="DJ6" s="36"/>
+      <c r="DK6" s="36"/>
+      <c r="DL6" s="36"/>
+      <c r="DM6" s="36"/>
+      <c r="DN6" s="36"/>
+      <c r="DO6" s="36"/>
+      <c r="DP6" s="36"/>
+      <c r="DQ6" s="36"/>
+      <c r="DR6" s="36"/>
+      <c r="DS6" s="36"/>
+      <c r="DT6" s="36"/>
+      <c r="DU6" s="36"/>
+      <c r="DV6" s="36"/>
+      <c r="DW6" s="36"/>
+      <c r="DX6" s="36"/>
+      <c r="DY6" s="36"/>
+      <c r="DZ6" s="36"/>
+      <c r="EA6" s="36"/>
+      <c r="EB6" s="36"/>
+      <c r="EC6" s="36"/>
+      <c r="ED6" s="36"/>
+      <c r="EE6" s="36"/>
+      <c r="EF6" s="36"/>
+      <c r="EG6" s="36"/>
+      <c r="EH6" s="36"/>
+      <c r="EI6" s="36"/>
+      <c r="EJ6" s="36"/>
+      <c r="EK6" s="36"/>
+      <c r="EL6" s="36"/>
+      <c r="EM6" s="36"/>
+      <c r="EN6" s="36"/>
+      <c r="EO6" s="36"/>
+      <c r="EP6" s="36"/>
+      <c r="EQ6" s="36"/>
+      <c r="ER6" s="36"/>
+      <c r="ES6" s="36"/>
+      <c r="ET6" s="36"/>
+      <c r="EU6" s="36"/>
+      <c r="EV6" s="36"/>
+      <c r="EW6" s="36"/>
+      <c r="EX6" s="36"/>
+      <c r="EY6" s="36"/>
+      <c r="EZ6" s="36"/>
+      <c r="FA6" s="36"/>
+      <c r="FB6" s="36"/>
+      <c r="FC6" s="36"/>
+      <c r="FD6" s="36"/>
+      <c r="FE6" s="36"/>
+      <c r="FF6" s="36"/>
+      <c r="FG6" s="36"/>
+      <c r="FH6" s="36"/>
+      <c r="FI6" s="36"/>
+      <c r="FJ6" s="36"/>
+      <c r="FK6" s="36"/>
+      <c r="FL6" s="36"/>
+      <c r="FM6" s="36"/>
+      <c r="FN6" s="36"/>
+      <c r="FO6" s="36"/>
+      <c r="FP6" s="36"/>
+      <c r="FQ6" s="36"/>
+      <c r="FR6" s="36"/>
+      <c r="FS6" s="36"/>
+      <c r="FT6" s="36"/>
+      <c r="FU6" s="36"/>
+      <c r="FV6" s="36"/>
+      <c r="FW6" s="36"/>
+      <c r="FX6" s="36"/>
+      <c r="FY6" s="36"/>
+      <c r="FZ6" s="36"/>
+      <c r="GA6" s="36"/>
+      <c r="GB6" s="36"/>
+      <c r="GC6" s="36"/>
+      <c r="GD6" s="36"/>
+      <c r="GE6" s="36"/>
+      <c r="GF6" s="36"/>
+      <c r="GG6" s="36"/>
+      <c r="GH6" s="36"/>
+      <c r="GI6" s="36"/>
+      <c r="GJ6" s="36"/>
+      <c r="GK6" s="36"/>
+      <c r="GL6" s="36"/>
+      <c r="GM6" s="36"/>
+      <c r="GN6" s="36"/>
+      <c r="GO6" s="36"/>
+      <c r="GP6" s="36"/>
+      <c r="GQ6" s="36"/>
+      <c r="GR6" s="36"/>
+      <c r="GS6" s="36"/>
+      <c r="GT6" s="36"/>
+      <c r="GU6" s="36"/>
+      <c r="GV6" s="36"/>
+      <c r="GW6" s="36"/>
+      <c r="GX6" s="36"/>
+      <c r="GY6" s="36"/>
+      <c r="GZ6" s="36"/>
+      <c r="HA6" s="36"/>
+      <c r="HB6" s="36"/>
+      <c r="HC6" s="36"/>
+      <c r="HD6" s="36"/>
+      <c r="HE6" s="36"/>
+      <c r="HF6" s="36"/>
+      <c r="HG6" s="36"/>
+      <c r="HH6" s="36"/>
+      <c r="HI6" s="36"/>
+      <c r="HJ6" s="36"/>
+      <c r="HK6" s="36"/>
+      <c r="HL6" s="36"/>
+      <c r="HM6" s="36"/>
+      <c r="HN6" s="36"/>
+      <c r="HO6" s="36"/>
+      <c r="HP6" s="36"/>
+      <c r="HQ6" s="36"/>
+      <c r="HR6" s="36"/>
+      <c r="HS6" s="36"/>
+      <c r="HT6" s="36"/>
+      <c r="HU6" s="36"/>
+      <c r="HV6" s="36"/>
+      <c r="HW6" s="36"/>
+      <c r="HX6" s="36"/>
+      <c r="HY6" s="36"/>
+      <c r="HZ6" s="36"/>
+      <c r="IA6" s="36"/>
+      <c r="IB6" s="36"/>
+      <c r="IC6" s="36"/>
+      <c r="ID6" s="36"/>
+      <c r="IE6" s="36"/>
+      <c r="IF6" s="36"/>
+      <c r="IG6" s="36"/>
+      <c r="IH6" s="36"/>
+      <c r="II6" s="36"/>
+      <c r="IJ6" s="36"/>
+      <c r="IK6" s="36"/>
+      <c r="IL6" s="36"/>
+      <c r="IM6" s="36"/>
+      <c r="IN6" s="36"/>
+      <c r="IO6" s="36"/>
+      <c r="IP6" s="36"/>
+      <c r="IQ6" s="36"/>
+      <c r="IR6" s="36"/>
+      <c r="IS6" s="36"/>
+      <c r="IT6" s="36"/>
+      <c r="IU6" s="36"/>
+      <c r="IV6" s="36"/>
+    </row>
+    <row r="7" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
+      <c r="BK7" s="36"/>
+      <c r="BL7" s="36"/>
+      <c r="BM7" s="36"/>
+      <c r="BN7" s="36"/>
+      <c r="BO7" s="36"/>
+      <c r="BP7" s="36"/>
+      <c r="BQ7" s="36"/>
+      <c r="BR7" s="36"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="36"/>
+      <c r="BU7" s="36"/>
+      <c r="BV7" s="36"/>
+      <c r="BW7" s="36"/>
+      <c r="BX7" s="36"/>
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="36"/>
+      <c r="CA7" s="36"/>
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="36"/>
+      <c r="CF7" s="36"/>
+      <c r="CG7" s="36"/>
+      <c r="CH7" s="36"/>
+      <c r="CI7" s="36"/>
+      <c r="CJ7" s="36"/>
+      <c r="CK7" s="36"/>
+      <c r="CL7" s="36"/>
+      <c r="CM7" s="36"/>
+      <c r="CN7" s="36"/>
+      <c r="CO7" s="36"/>
+      <c r="CP7" s="36"/>
+      <c r="CQ7" s="36"/>
+      <c r="CR7" s="36"/>
+      <c r="CS7" s="36"/>
+      <c r="CT7" s="36"/>
+      <c r="CU7" s="36"/>
+      <c r="CV7" s="36"/>
+      <c r="CW7" s="36"/>
+      <c r="CX7" s="36"/>
+      <c r="CY7" s="36"/>
+      <c r="CZ7" s="36"/>
+      <c r="DA7" s="36"/>
+      <c r="DB7" s="36"/>
+      <c r="DC7" s="36"/>
+      <c r="DD7" s="36"/>
+      <c r="DE7" s="36"/>
+      <c r="DF7" s="36"/>
+      <c r="DG7" s="36"/>
+      <c r="DH7" s="36"/>
+      <c r="DI7" s="36"/>
+      <c r="DJ7" s="36"/>
+      <c r="DK7" s="36"/>
+      <c r="DL7" s="36"/>
+      <c r="DM7" s="36"/>
+      <c r="DN7" s="36"/>
+      <c r="DO7" s="36"/>
+      <c r="DP7" s="36"/>
+      <c r="DQ7" s="36"/>
+      <c r="DR7" s="36"/>
+      <c r="DS7" s="36"/>
+      <c r="DT7" s="36"/>
+      <c r="DU7" s="36"/>
+      <c r="DV7" s="36"/>
+      <c r="DW7" s="36"/>
+      <c r="DX7" s="36"/>
+      <c r="DY7" s="36"/>
+      <c r="DZ7" s="36"/>
+      <c r="EA7" s="36"/>
+      <c r="EB7" s="36"/>
+      <c r="EC7" s="36"/>
+      <c r="ED7" s="36"/>
+      <c r="EE7" s="36"/>
+      <c r="EF7" s="36"/>
+      <c r="EG7" s="36"/>
+      <c r="EH7" s="36"/>
+      <c r="EI7" s="36"/>
+      <c r="EJ7" s="36"/>
+      <c r="EK7" s="36"/>
+      <c r="EL7" s="36"/>
+      <c r="EM7" s="36"/>
+      <c r="EN7" s="36"/>
+      <c r="EO7" s="36"/>
+      <c r="EP7" s="36"/>
+      <c r="EQ7" s="36"/>
+      <c r="ER7" s="36"/>
+      <c r="ES7" s="36"/>
+      <c r="ET7" s="36"/>
+      <c r="EU7" s="36"/>
+      <c r="EV7" s="36"/>
+      <c r="EW7" s="36"/>
+      <c r="EX7" s="36"/>
+      <c r="EY7" s="36"/>
+      <c r="EZ7" s="36"/>
+      <c r="FA7" s="36"/>
+      <c r="FB7" s="36"/>
+      <c r="FC7" s="36"/>
+      <c r="FD7" s="36"/>
+      <c r="FE7" s="36"/>
+      <c r="FF7" s="36"/>
+      <c r="FG7" s="36"/>
+      <c r="FH7" s="36"/>
+      <c r="FI7" s="36"/>
+      <c r="FJ7" s="36"/>
+      <c r="FK7" s="36"/>
+      <c r="FL7" s="36"/>
+      <c r="FM7" s="36"/>
+      <c r="FN7" s="36"/>
+      <c r="FO7" s="36"/>
+      <c r="FP7" s="36"/>
+      <c r="FQ7" s="36"/>
+      <c r="FR7" s="36"/>
+      <c r="FS7" s="36"/>
+      <c r="FT7" s="36"/>
+      <c r="FU7" s="36"/>
+      <c r="FV7" s="36"/>
+      <c r="FW7" s="36"/>
+      <c r="FX7" s="36"/>
+      <c r="FY7" s="36"/>
+      <c r="FZ7" s="36"/>
+      <c r="GA7" s="36"/>
+      <c r="GB7" s="36"/>
+      <c r="GC7" s="36"/>
+      <c r="GD7" s="36"/>
+      <c r="GE7" s="36"/>
+      <c r="GF7" s="36"/>
+      <c r="GG7" s="36"/>
+      <c r="GH7" s="36"/>
+      <c r="GI7" s="36"/>
+      <c r="GJ7" s="36"/>
+      <c r="GK7" s="36"/>
+      <c r="GL7" s="36"/>
+      <c r="GM7" s="36"/>
+      <c r="GN7" s="36"/>
+      <c r="GO7" s="36"/>
+      <c r="GP7" s="36"/>
+      <c r="GQ7" s="36"/>
+      <c r="GR7" s="36"/>
+      <c r="GS7" s="36"/>
+      <c r="GT7" s="36"/>
+      <c r="GU7" s="36"/>
+      <c r="GV7" s="36"/>
+      <c r="GW7" s="36"/>
+      <c r="GX7" s="36"/>
+      <c r="GY7" s="36"/>
+      <c r="GZ7" s="36"/>
+      <c r="HA7" s="36"/>
+      <c r="HB7" s="36"/>
+      <c r="HC7" s="36"/>
+      <c r="HD7" s="36"/>
+      <c r="HE7" s="36"/>
+      <c r="HF7" s="36"/>
+      <c r="HG7" s="36"/>
+      <c r="HH7" s="36"/>
+      <c r="HI7" s="36"/>
+      <c r="HJ7" s="36"/>
+      <c r="HK7" s="36"/>
+      <c r="HL7" s="36"/>
+      <c r="HM7" s="36"/>
+      <c r="HN7" s="36"/>
+      <c r="HO7" s="36"/>
+      <c r="HP7" s="36"/>
+      <c r="HQ7" s="36"/>
+      <c r="HR7" s="36"/>
+      <c r="HS7" s="36"/>
+      <c r="HT7" s="36"/>
+      <c r="HU7" s="36"/>
+      <c r="HV7" s="36"/>
+      <c r="HW7" s="36"/>
+      <c r="HX7" s="36"/>
+      <c r="HY7" s="36"/>
+      <c r="HZ7" s="36"/>
+      <c r="IA7" s="36"/>
+      <c r="IB7" s="36"/>
+      <c r="IC7" s="36"/>
+      <c r="ID7" s="36"/>
+      <c r="IE7" s="36"/>
+      <c r="IF7" s="36"/>
+      <c r="IG7" s="36"/>
+      <c r="IH7" s="36"/>
+      <c r="II7" s="36"/>
+      <c r="IJ7" s="36"/>
+      <c r="IK7" s="36"/>
+      <c r="IL7" s="36"/>
+      <c r="IM7" s="36"/>
+      <c r="IN7" s="36"/>
+      <c r="IO7" s="36"/>
+      <c r="IP7" s="36"/>
+      <c r="IQ7" s="36"/>
+      <c r="IR7" s="36"/>
+      <c r="IS7" s="36"/>
+      <c r="IT7" s="36"/>
+      <c r="IU7" s="36"/>
+      <c r="IV7" s="36"/>
+    </row>
+    <row r="8" spans="1:258" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="D8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="E8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="F8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="G8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="H8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="I8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="J8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:258" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="37">
+        <v>1</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:258" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33">
+        <v>10</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+    </row>
+    <row r="11" spans="1:258" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="37">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:258" s="36" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="44">
         <v>20</v>
       </c>
-      <c r="L8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-    </row>
-    <row r="9" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42">
-        <v>1</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="43" t="s">
+      <c r="D12" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:258" s="36" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47">
+        <v>29</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+    </row>
+    <row r="14" spans="1:258" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37">
+        <v>5</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="43" t="s">
+      <c r="F14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43" t="s">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-    </row>
-    <row r="10" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
-        <v>10</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="39" t="s">
+      <c r="L14" s="38"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:258" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33">
+        <v>4</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="39" t="s">
+      <c r="F15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
+      <c r="J15" s="34"/>
+      <c r="K15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
-        <v>3</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="43" t="s">
+      <c r="L15" s="34"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="1:258" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43" t="s">
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-    </row>
-    <row r="12" spans="1:16" s="41" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
-        <v>20</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" s="41" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
-        <v>29</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-    </row>
-    <row r="14" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42">
-        <v>5</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
-        <v>4</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="5"/>
+      <c r="B17" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="9">
         <v>6</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="7"/>
+      <c r="B18" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="5"/>
+      <c r="B19" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="9">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+    <row r="20" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33">
         <v>11</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="D20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="E20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="F20" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="G20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="H20" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="I20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="J20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="K20" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="L20" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-    </row>
-    <row r="21" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42">
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37">
         <v>16</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="D21" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="E21" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="F21" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="G21" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="H21" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="I21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="43" t="s">
+      <c r="J21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="K21" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="L21" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-    </row>
-    <row r="22" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42">
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+    </row>
+    <row r="22" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="37">
         <v>12</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="D22" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="E22" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="F22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="G22" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="H22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="I22" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="J22" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43" t="s">
+      <c r="K22" s="39"/>
+      <c r="L22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-    </row>
-    <row r="23" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33">
         <v>13</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="D23" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="H23" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="I23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="J23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="39" t="s">
+      <c r="K23" s="35"/>
+      <c r="L23" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-    </row>
-    <row r="24" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42">
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+    </row>
+    <row r="24" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="37">
         <v>18</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="D24" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="E24" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="F24" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="G24" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="H24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="I24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="43" t="s">
+      <c r="J24" s="38"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-    </row>
-    <row r="25" spans="1:16" s="41" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:16" s="36" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="40">
         <v>21</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="D25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="E25" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="F25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="G25" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="H25" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="I25" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="J25" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="46" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-    </row>
-    <row r="26" spans="1:16" s="41" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="1:16" s="36" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51">
         <v>22</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="D26" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="E26" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="F26" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="G26" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="H26" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="I26" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="56" t="s">
+      <c r="J26" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="56" t="s">
+      <c r="K26" s="52"/>
+      <c r="L26" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-    </row>
-    <row r="27" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42">
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+    </row>
+    <row r="27" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="37">
         <v>23</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="D27" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="E27" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="F27" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="G27" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="H27" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="I27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="43" t="s">
+      <c r="J27" s="38"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-    </row>
-    <row r="28" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+    </row>
+    <row r="28" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="33">
         <v>24</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="D28" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="E28" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="F28" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="G28" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="H28" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="39" t="s">
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-    </row>
-    <row r="29" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42">
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="37">
         <v>25</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="D29" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="E29" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="F29" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="G29" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="H29" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="I29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+    </row>
+    <row r="30" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="33">
         <v>17</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="D30" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="E30" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="F30" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="G30" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="H30" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="I30" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:16" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="33">
         <v>19</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="D31" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="E31" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="F31" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="H31" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="I31" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
     </row>
     <row r="32" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
     </row>
@@ -3330,14 +5333,12 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
     <row r="35" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3360,22 +5361,561 @@
       <c r="L35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
+    <row r="36" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+    </row>
+    <row r="37" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="64"/>
+    </row>
+    <row r="38" spans="1:16" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+    </row>
+    <row r="39" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="66"/>
+    </row>
+    <row r="40" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="67"/>
+    </row>
+    <row r="41" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="68"/>
+    </row>
+    <row r="42" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="68"/>
+    </row>
+    <row r="43" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="68"/>
+    </row>
+    <row r="44" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+    </row>
+    <row r="45" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="68"/>
+    </row>
+    <row r="46" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="68"/>
+    </row>
+    <row r="47" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="68"/>
+    </row>
+    <row r="48" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+    </row>
+    <row r="49" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="68"/>
+    </row>
+    <row r="50" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="68"/>
+    </row>
+    <row r="51" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="68"/>
+    </row>
+    <row r="52" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="68"/>
+    </row>
+    <row r="53" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="68"/>
+    </row>
+    <row r="54" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="68"/>
+    </row>
+    <row r="55" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="68"/>
+    </row>
+    <row r="56" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="68"/>
+    </row>
+    <row r="57" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="68"/>
+    </row>
+    <row r="58" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="68"/>
+    </row>
+    <row r="59" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="68"/>
+    </row>
+    <row r="60" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="68"/>
+    </row>
+    <row r="61" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="68"/>
+    </row>
+    <row r="62" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="68"/>
+    </row>
+    <row r="63" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="68"/>
+    </row>
+    <row r="64" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="68"/>
+    </row>
+    <row r="65" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="68"/>
+    </row>
+    <row r="66" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="68"/>
+    </row>
+    <row r="67" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="68"/>
+    </row>
+    <row r="68" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="68"/>
+    </row>
+    <row r="69" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="68"/>
+    </row>
+    <row r="70" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="68"/>
+    </row>
+    <row r="71" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="68"/>
+    </row>
+    <row r="72" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="68"/>
+    </row>
+    <row r="73" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="68"/>
+    </row>
+    <row r="74" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="68"/>
+    </row>
+    <row r="75" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="68"/>
+    </row>
+    <row r="76" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="68"/>
+    </row>
+    <row r="77" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="68"/>
+    </row>
+    <row r="78" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="68"/>
+    </row>
+    <row r="79" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="68"/>
+    </row>
+    <row r="80" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="68"/>
+    </row>
+    <row r="81" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="68"/>
+    </row>
+    <row r="82" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="68"/>
+    </row>
+    <row r="83" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="68"/>
+    </row>
+    <row r="84" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="68"/>
+    </row>
+    <row r="85" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="68"/>
+    </row>
+    <row r="86" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="68"/>
+    </row>
+    <row r="87" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="68"/>
+    </row>
+    <row r="88" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="68"/>
+    </row>
+    <row r="89" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="68"/>
+    </row>
+    <row r="90" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="68"/>
+    </row>
+    <row r="91" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="68"/>
+    </row>
+    <row r="92" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="68"/>
+    </row>
+    <row r="93" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="68"/>
+    </row>
+    <row r="94" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="68"/>
+    </row>
+    <row r="95" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="68"/>
+    </row>
+    <row r="96" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="68"/>
+    </row>
+    <row r="97" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="68"/>
+    </row>
+    <row r="98" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="68"/>
+    </row>
+    <row r="99" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="68"/>
+    </row>
+    <row r="100" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="68"/>
+    </row>
+    <row r="101" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="68"/>
+    </row>
+    <row r="102" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="68"/>
+    </row>
+    <row r="103" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="68"/>
+    </row>
+    <row r="104" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="68"/>
+    </row>
+    <row r="105" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="68"/>
+    </row>
+    <row r="106" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="68"/>
+    </row>
+    <row r="107" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="68"/>
+    </row>
+    <row r="108" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="68"/>
+    </row>
+    <row r="109" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="68"/>
+    </row>
+    <row r="110" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="68"/>
+    </row>
+    <row r="111" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="68"/>
+    </row>
+    <row r="112" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="68"/>
+    </row>
+    <row r="113" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="68"/>
+    </row>
+    <row r="114" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="68"/>
+    </row>
+    <row r="115" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="68"/>
+    </row>
+    <row r="116" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="68"/>
+    </row>
+    <row r="117" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="68"/>
+    </row>
+    <row r="118" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="68"/>
+    </row>
+    <row r="119" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="68"/>
+    </row>
+    <row r="120" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="68"/>
+    </row>
+    <row r="121" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="68"/>
+    </row>
+    <row r="122" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="68"/>
+    </row>
+    <row r="123" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="68"/>
+    </row>
+    <row r="124" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="68"/>
+    </row>
+    <row r="125" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="68"/>
+    </row>
+    <row r="126" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="68"/>
+    </row>
+    <row r="127" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="68"/>
+    </row>
+    <row r="128" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="68"/>
+    </row>
+    <row r="129" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="68"/>
+    </row>
+    <row r="130" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="68"/>
+    </row>
+    <row r="131" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="68"/>
+    </row>
+    <row r="132" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="68"/>
+    </row>
+    <row r="133" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="68"/>
+    </row>
+    <row r="134" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="68"/>
+    </row>
+    <row r="135" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="68"/>
+    </row>
+    <row r="136" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="68"/>
+    </row>
+    <row r="137" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="68"/>
+    </row>
+    <row r="138" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="68"/>
+    </row>
+    <row r="139" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="68"/>
+    </row>
+    <row r="140" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="68"/>
+    </row>
+    <row r="141" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="68"/>
+    </row>
+    <row r="142" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="68"/>
+    </row>
+    <row r="143" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="68"/>
+    </row>
+    <row r="144" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="68"/>
+    </row>
+    <row r="145" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="68"/>
+    </row>
+    <row r="146" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="68"/>
+    </row>
+    <row r="147" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="68"/>
+    </row>
+    <row r="148" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="68"/>
+    </row>
+    <row r="149" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="68"/>
+    </row>
+    <row r="150" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="68"/>
+    </row>
+    <row r="151" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="68"/>
+    </row>
+    <row r="152" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="68"/>
+    </row>
+    <row r="153" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="68"/>
+    </row>
+    <row r="154" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="68"/>
+    </row>
+    <row r="155" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="68"/>
+    </row>
+    <row r="156" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="68"/>
+    </row>
+    <row r="157" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="68"/>
+    </row>
+    <row r="158" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="68"/>
+    </row>
+    <row r="159" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="68"/>
+    </row>
+    <row r="160" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="68"/>
+    </row>
+    <row r="161" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="68"/>
+    </row>
+    <row r="162" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="68"/>
+    </row>
+    <row r="163" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="68"/>
+    </row>
+    <row r="164" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="68"/>
+    </row>
+    <row r="165" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="68"/>
+    </row>
+    <row r="166" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="68"/>
+    </row>
+    <row r="167" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="68"/>
+    </row>
+    <row r="168" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="68"/>
+    </row>
+    <row r="169" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="68"/>
+    </row>
+    <row r="170" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="68"/>
+    </row>
+    <row r="171" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="68"/>
+    </row>
+    <row r="172" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="68"/>
+    </row>
+    <row r="173" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="68"/>
+    </row>
+    <row r="174" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="68"/>
+    </row>
+    <row r="175" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="68"/>
+    </row>
+    <row r="176" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="68"/>
+    </row>
+    <row r="177" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="68"/>
+    </row>
+    <row r="178" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="68"/>
+    </row>
+    <row r="179" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="68"/>
+    </row>
+    <row r="180" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="68"/>
+    </row>
+    <row r="181" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="68"/>
+    </row>
+    <row r="182" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="68"/>
+    </row>
+    <row r="183" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="68"/>
+    </row>
+    <row r="184" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="68"/>
+    </row>
+    <row r="185" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="68"/>
+    </row>
+    <row r="186" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="68"/>
+    </row>
+    <row r="187" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="68"/>
+    </row>
+    <row r="188" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="68"/>
+    </row>
+    <row r="189" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="68"/>
+    </row>
+    <row r="190" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="68"/>
+    </row>
+    <row r="191" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="68"/>
+    </row>
+    <row r="192" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="68"/>
+    </row>
+    <row r="193" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="68"/>
+    </row>
+    <row r="194" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="68"/>
+    </row>
+    <row r="195" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="68"/>
+    </row>
+    <row r="196" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="68"/>
+    </row>
+    <row r="197" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="68"/>
+    </row>
+    <row r="198" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="68"/>
+    </row>
+    <row r="199" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="68"/>
+    </row>
+    <row r="200" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="68"/>
+    </row>
+    <row r="201" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="68"/>
+    </row>
+    <row r="202" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="68"/>
+    </row>
+    <row r="203" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="68"/>
+    </row>
+    <row r="204" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="68"/>
+    </row>
+    <row r="205" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="68"/>
+    </row>
+    <row r="206" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="68"/>
+    </row>
+    <row r="207" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="68"/>
+    </row>
+    <row r="208" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="68"/>
+    </row>
+    <row r="209" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="68"/>
+    </row>
+    <row r="210" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="68"/>
+    </row>
+    <row r="211" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="68"/>
+    </row>
+    <row r="212" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="68"/>
+    </row>
+    <row r="213" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="68"/>
+    </row>
+    <row r="214" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="68"/>
+    </row>
+    <row r="215" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="68"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:L35">
-    <sortCondition ref="F2:F35"/>
+  <sortState ref="C2:N35">
+    <sortCondition ref="H2:H35"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="3">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3420,17 +5960,17 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="35"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -4617,7 +7157,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4721,8 +7261,8 @@
       <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>164</v>
+      <c r="A10" s="70" t="s">
+        <v>235</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>165</v>
@@ -4776,12 +7316,8 @@
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>175</v>
-      </c>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -4801,13 +7337,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4837,8 +7373,8 @@
       <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>176</v>
+      <c r="B3" s="57" t="s">
+        <v>181</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -4848,7 +7384,9 @@
       <c r="A4" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="58" t="s">
+        <v>182</v>
+      </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -4857,7 +7395,9 @@
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="58" t="s">
+        <v>183</v>
+      </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -4866,7 +7406,9 @@
       <c r="A6" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="58" t="s">
+        <v>184</v>
+      </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -4875,7 +7417,9 @@
       <c r="A7" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="58" t="s">
+        <v>185</v>
+      </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -4884,7 +7428,9 @@
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="58" t="s">
+        <v>186</v>
+      </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -4893,7 +7439,9 @@
       <c r="A9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="58" t="s">
+        <v>187</v>
+      </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -4902,15 +7450,84 @@
       <c r="A10" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="58" t="s">
+        <v>192</v>
+      </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
+    <row r="11" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4918,6 +7535,386 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1010</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10100</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37">
+        <v>1101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4928,30 +7925,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="16.375" style="31" customWidth="1"/>
+    <col min="1" max="256" width="16.375" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
-      <c r="B3" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="27"/>
@@ -4959,34 +7956,34 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>4</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>180</v>
+      <c r="C4" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>182</v>
+      <c r="C5" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>179</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>

--- a/doc/指令.xlsx
+++ b/doc/指令.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="278">
   <si>
     <t>编号</t>
   </si>
@@ -991,6 +991,165 @@
   </si>
   <si>
     <t>1011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1100</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 0x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMPI R1 0xB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTSP ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW R0 R1 0x8</t>
+  </si>
+  <si>
+    <t>ADDIU R1 0x8</t>
+  </si>
+  <si>
+    <t>SW R0 R1 0x10</t>
+  </si>
+  <si>
+    <t>MFPC R1</t>
+  </si>
+  <si>
+    <t>JR R1</t>
+  </si>
+  <si>
+    <t>JALR R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOP </t>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空泡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OP</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LI R1 0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1018,8 +1177,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>ADDIU R1 0xA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>2</t>
+      <t>J</t>
     </r>
     <r>
       <rPr>
@@ -1029,36 +1192,68 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>*</t>
+      <t>RRA</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>100</t>
+      <t>OP</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B 0x2</t>
+    <t>ADDIU R1 0xA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CMPI R1 0xB</t>
+    <t>——10000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未测试</t>
+    <t>——11010</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MTSP ry</t>
+    <t>以上再重复</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TSP R1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFIH R1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTIH R0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空泡/1010</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1519,18 +1714,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1539,9 +1722,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1575,6 +1755,21 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2739,7 +2934,7 @@
   <dimension ref="A1:IX215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2759,10 +2954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2778,15 +2973,15 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="55"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -2794,7 +2989,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" s="59" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:258" s="55" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="37">
@@ -3062,7 +3257,7 @@
       <c r="IU2" s="36"/>
       <c r="IV2" s="36"/>
     </row>
-    <row r="3" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:258" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>190</v>
       </c>
@@ -3335,7 +3530,7 @@
       <c r="IU3" s="36"/>
       <c r="IV3" s="36"/>
     </row>
-    <row r="4" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:258" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>190</v>
       </c>
@@ -3610,7 +3805,7 @@
       <c r="IU4" s="36"/>
       <c r="IV4" s="36"/>
     </row>
-    <row r="5" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:258" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>190</v>
       </c>
@@ -3885,7 +4080,7 @@
       <c r="IU5" s="36"/>
       <c r="IV5" s="36"/>
     </row>
-    <row r="6" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:258" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37">
@@ -4163,7 +4358,7 @@
       <c r="IU6" s="36"/>
       <c r="IV6" s="36"/>
     </row>
-    <row r="7" spans="1:258" s="59" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:258" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="33">
@@ -4587,9 +4782,7 @@
     </row>
     <row r="12" spans="1:258" s="36" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
-      <c r="B12" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B12" s="38"/>
       <c r="C12" s="44">
         <v>20</v>
       </c>
@@ -4716,147 +4909,1115 @@
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
     </row>
-    <row r="16" spans="1:258" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C16" s="6">
+    <row r="16" spans="1:258" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="37">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="L16" s="38"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="36"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="36"/>
+      <c r="AZ16" s="36"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="36"/>
+      <c r="BC16" s="36"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="36"/>
+      <c r="BF16" s="36"/>
+      <c r="BG16" s="36"/>
+      <c r="BH16" s="36"/>
+      <c r="BI16" s="36"/>
+      <c r="BJ16" s="36"/>
+      <c r="BK16" s="36"/>
+      <c r="BL16" s="36"/>
+      <c r="BM16" s="36"/>
+      <c r="BN16" s="36"/>
+      <c r="BO16" s="36"/>
+      <c r="BP16" s="36"/>
+      <c r="BQ16" s="36"/>
+      <c r="BR16" s="36"/>
+      <c r="BS16" s="36"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="36"/>
+      <c r="BV16" s="36"/>
+      <c r="BW16" s="36"/>
+      <c r="BX16" s="36"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="36"/>
+      <c r="CA16" s="36"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36"/>
+      <c r="CE16" s="36"/>
+      <c r="CF16" s="36"/>
+      <c r="CG16" s="36"/>
+      <c r="CH16" s="36"/>
+      <c r="CI16" s="36"/>
+      <c r="CJ16" s="36"/>
+      <c r="CK16" s="36"/>
+      <c r="CL16" s="36"/>
+      <c r="CM16" s="36"/>
+      <c r="CN16" s="36"/>
+      <c r="CO16" s="36"/>
+      <c r="CP16" s="36"/>
+      <c r="CQ16" s="36"/>
+      <c r="CR16" s="36"/>
+      <c r="CS16" s="36"/>
+      <c r="CT16" s="36"/>
+      <c r="CU16" s="36"/>
+      <c r="CV16" s="36"/>
+      <c r="CW16" s="36"/>
+      <c r="CX16" s="36"/>
+      <c r="CY16" s="36"/>
+      <c r="CZ16" s="36"/>
+      <c r="DA16" s="36"/>
+      <c r="DB16" s="36"/>
+      <c r="DC16" s="36"/>
+      <c r="DD16" s="36"/>
+      <c r="DE16" s="36"/>
+      <c r="DF16" s="36"/>
+      <c r="DG16" s="36"/>
+      <c r="DH16" s="36"/>
+      <c r="DI16" s="36"/>
+      <c r="DJ16" s="36"/>
+      <c r="DK16" s="36"/>
+      <c r="DL16" s="36"/>
+      <c r="DM16" s="36"/>
+      <c r="DN16" s="36"/>
+      <c r="DO16" s="36"/>
+      <c r="DP16" s="36"/>
+      <c r="DQ16" s="36"/>
+      <c r="DR16" s="36"/>
+      <c r="DS16" s="36"/>
+      <c r="DT16" s="36"/>
+      <c r="DU16" s="36"/>
+      <c r="DV16" s="36"/>
+      <c r="DW16" s="36"/>
+      <c r="DX16" s="36"/>
+      <c r="DY16" s="36"/>
+      <c r="DZ16" s="36"/>
+      <c r="EA16" s="36"/>
+      <c r="EB16" s="36"/>
+      <c r="EC16" s="36"/>
+      <c r="ED16" s="36"/>
+      <c r="EE16" s="36"/>
+      <c r="EF16" s="36"/>
+      <c r="EG16" s="36"/>
+      <c r="EH16" s="36"/>
+      <c r="EI16" s="36"/>
+      <c r="EJ16" s="36"/>
+      <c r="EK16" s="36"/>
+      <c r="EL16" s="36"/>
+      <c r="EM16" s="36"/>
+      <c r="EN16" s="36"/>
+      <c r="EO16" s="36"/>
+      <c r="EP16" s="36"/>
+      <c r="EQ16" s="36"/>
+      <c r="ER16" s="36"/>
+      <c r="ES16" s="36"/>
+      <c r="ET16" s="36"/>
+      <c r="EU16" s="36"/>
+      <c r="EV16" s="36"/>
+      <c r="EW16" s="36"/>
+      <c r="EX16" s="36"/>
+      <c r="EY16" s="36"/>
+      <c r="EZ16" s="36"/>
+      <c r="FA16" s="36"/>
+      <c r="FB16" s="36"/>
+      <c r="FC16" s="36"/>
+      <c r="FD16" s="36"/>
+      <c r="FE16" s="36"/>
+      <c r="FF16" s="36"/>
+      <c r="FG16" s="36"/>
+      <c r="FH16" s="36"/>
+      <c r="FI16" s="36"/>
+      <c r="FJ16" s="36"/>
+      <c r="FK16" s="36"/>
+      <c r="FL16" s="36"/>
+      <c r="FM16" s="36"/>
+      <c r="FN16" s="36"/>
+      <c r="FO16" s="36"/>
+      <c r="FP16" s="36"/>
+      <c r="FQ16" s="36"/>
+      <c r="FR16" s="36"/>
+      <c r="FS16" s="36"/>
+      <c r="FT16" s="36"/>
+      <c r="FU16" s="36"/>
+      <c r="FV16" s="36"/>
+      <c r="FW16" s="36"/>
+      <c r="FX16" s="36"/>
+      <c r="FY16" s="36"/>
+      <c r="FZ16" s="36"/>
+      <c r="GA16" s="36"/>
+      <c r="GB16" s="36"/>
+      <c r="GC16" s="36"/>
+      <c r="GD16" s="36"/>
+      <c r="GE16" s="36"/>
+      <c r="GF16" s="36"/>
+      <c r="GG16" s="36"/>
+      <c r="GH16" s="36"/>
+      <c r="GI16" s="36"/>
+      <c r="GJ16" s="36"/>
+      <c r="GK16" s="36"/>
+      <c r="GL16" s="36"/>
+      <c r="GM16" s="36"/>
+      <c r="GN16" s="36"/>
+      <c r="GO16" s="36"/>
+      <c r="GP16" s="36"/>
+      <c r="GQ16" s="36"/>
+      <c r="GR16" s="36"/>
+      <c r="GS16" s="36"/>
+      <c r="GT16" s="36"/>
+      <c r="GU16" s="36"/>
+      <c r="GV16" s="36"/>
+      <c r="GW16" s="36"/>
+      <c r="GX16" s="36"/>
+      <c r="GY16" s="36"/>
+      <c r="GZ16" s="36"/>
+      <c r="HA16" s="36"/>
+      <c r="HB16" s="36"/>
+      <c r="HC16" s="36"/>
+      <c r="HD16" s="36"/>
+      <c r="HE16" s="36"/>
+      <c r="HF16" s="36"/>
+      <c r="HG16" s="36"/>
+      <c r="HH16" s="36"/>
+      <c r="HI16" s="36"/>
+      <c r="HJ16" s="36"/>
+      <c r="HK16" s="36"/>
+      <c r="HL16" s="36"/>
+      <c r="HM16" s="36"/>
+      <c r="HN16" s="36"/>
+      <c r="HO16" s="36"/>
+      <c r="HP16" s="36"/>
+      <c r="HQ16" s="36"/>
+      <c r="HR16" s="36"/>
+      <c r="HS16" s="36"/>
+      <c r="HT16" s="36"/>
+      <c r="HU16" s="36"/>
+      <c r="HV16" s="36"/>
+      <c r="HW16" s="36"/>
+      <c r="HX16" s="36"/>
+      <c r="HY16" s="36"/>
+      <c r="HZ16" s="36"/>
+      <c r="IA16" s="36"/>
+      <c r="IB16" s="36"/>
+      <c r="IC16" s="36"/>
+      <c r="ID16" s="36"/>
+      <c r="IE16" s="36"/>
+      <c r="IF16" s="36"/>
+      <c r="IG16" s="36"/>
+      <c r="IH16" s="36"/>
+      <c r="II16" s="36"/>
+      <c r="IJ16" s="36"/>
+      <c r="IK16" s="36"/>
+      <c r="IL16" s="36"/>
+      <c r="IM16" s="36"/>
+      <c r="IN16" s="36"/>
+      <c r="IO16" s="36"/>
+      <c r="IP16" s="36"/>
+      <c r="IQ16" s="36"/>
+      <c r="IR16" s="36"/>
+      <c r="IS16" s="36"/>
+      <c r="IT16" s="36"/>
+      <c r="IU16" s="36"/>
+      <c r="IV16" s="36"/>
+    </row>
+    <row r="17" spans="1:256" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="33">
         <v>6</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="L17" s="34"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="36"/>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="36"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="36"/>
+      <c r="CA17" s="36"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36"/>
+      <c r="CE17" s="36"/>
+      <c r="CF17" s="36"/>
+      <c r="CG17" s="36"/>
+      <c r="CH17" s="36"/>
+      <c r="CI17" s="36"/>
+      <c r="CJ17" s="36"/>
+      <c r="CK17" s="36"/>
+      <c r="CL17" s="36"/>
+      <c r="CM17" s="36"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="36"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+      <c r="CS17" s="36"/>
+      <c r="CT17" s="36"/>
+      <c r="CU17" s="36"/>
+      <c r="CV17" s="36"/>
+      <c r="CW17" s="36"/>
+      <c r="CX17" s="36"/>
+      <c r="CY17" s="36"/>
+      <c r="CZ17" s="36"/>
+      <c r="DA17" s="36"/>
+      <c r="DB17" s="36"/>
+      <c r="DC17" s="36"/>
+      <c r="DD17" s="36"/>
+      <c r="DE17" s="36"/>
+      <c r="DF17" s="36"/>
+      <c r="DG17" s="36"/>
+      <c r="DH17" s="36"/>
+      <c r="DI17" s="36"/>
+      <c r="DJ17" s="36"/>
+      <c r="DK17" s="36"/>
+      <c r="DL17" s="36"/>
+      <c r="DM17" s="36"/>
+      <c r="DN17" s="36"/>
+      <c r="DO17" s="36"/>
+      <c r="DP17" s="36"/>
+      <c r="DQ17" s="36"/>
+      <c r="DR17" s="36"/>
+      <c r="DS17" s="36"/>
+      <c r="DT17" s="36"/>
+      <c r="DU17" s="36"/>
+      <c r="DV17" s="36"/>
+      <c r="DW17" s="36"/>
+      <c r="DX17" s="36"/>
+      <c r="DY17" s="36"/>
+      <c r="DZ17" s="36"/>
+      <c r="EA17" s="36"/>
+      <c r="EB17" s="36"/>
+      <c r="EC17" s="36"/>
+      <c r="ED17" s="36"/>
+      <c r="EE17" s="36"/>
+      <c r="EF17" s="36"/>
+      <c r="EG17" s="36"/>
+      <c r="EH17" s="36"/>
+      <c r="EI17" s="36"/>
+      <c r="EJ17" s="36"/>
+      <c r="EK17" s="36"/>
+      <c r="EL17" s="36"/>
+      <c r="EM17" s="36"/>
+      <c r="EN17" s="36"/>
+      <c r="EO17" s="36"/>
+      <c r="EP17" s="36"/>
+      <c r="EQ17" s="36"/>
+      <c r="ER17" s="36"/>
+      <c r="ES17" s="36"/>
+      <c r="ET17" s="36"/>
+      <c r="EU17" s="36"/>
+      <c r="EV17" s="36"/>
+      <c r="EW17" s="36"/>
+      <c r="EX17" s="36"/>
+      <c r="EY17" s="36"/>
+      <c r="EZ17" s="36"/>
+      <c r="FA17" s="36"/>
+      <c r="FB17" s="36"/>
+      <c r="FC17" s="36"/>
+      <c r="FD17" s="36"/>
+      <c r="FE17" s="36"/>
+      <c r="FF17" s="36"/>
+      <c r="FG17" s="36"/>
+      <c r="FH17" s="36"/>
+      <c r="FI17" s="36"/>
+      <c r="FJ17" s="36"/>
+      <c r="FK17" s="36"/>
+      <c r="FL17" s="36"/>
+      <c r="FM17" s="36"/>
+      <c r="FN17" s="36"/>
+      <c r="FO17" s="36"/>
+      <c r="FP17" s="36"/>
+      <c r="FQ17" s="36"/>
+      <c r="FR17" s="36"/>
+      <c r="FS17" s="36"/>
+      <c r="FT17" s="36"/>
+      <c r="FU17" s="36"/>
+      <c r="FV17" s="36"/>
+      <c r="FW17" s="36"/>
+      <c r="FX17" s="36"/>
+      <c r="FY17" s="36"/>
+      <c r="FZ17" s="36"/>
+      <c r="GA17" s="36"/>
+      <c r="GB17" s="36"/>
+      <c r="GC17" s="36"/>
+      <c r="GD17" s="36"/>
+      <c r="GE17" s="36"/>
+      <c r="GF17" s="36"/>
+      <c r="GG17" s="36"/>
+      <c r="GH17" s="36"/>
+      <c r="GI17" s="36"/>
+      <c r="GJ17" s="36"/>
+      <c r="GK17" s="36"/>
+      <c r="GL17" s="36"/>
+      <c r="GM17" s="36"/>
+      <c r="GN17" s="36"/>
+      <c r="GO17" s="36"/>
+      <c r="GP17" s="36"/>
+      <c r="GQ17" s="36"/>
+      <c r="GR17" s="36"/>
+      <c r="GS17" s="36"/>
+      <c r="GT17" s="36"/>
+      <c r="GU17" s="36"/>
+      <c r="GV17" s="36"/>
+      <c r="GW17" s="36"/>
+      <c r="GX17" s="36"/>
+      <c r="GY17" s="36"/>
+      <c r="GZ17" s="36"/>
+      <c r="HA17" s="36"/>
+      <c r="HB17" s="36"/>
+      <c r="HC17" s="36"/>
+      <c r="HD17" s="36"/>
+      <c r="HE17" s="36"/>
+      <c r="HF17" s="36"/>
+      <c r="HG17" s="36"/>
+      <c r="HH17" s="36"/>
+      <c r="HI17" s="36"/>
+      <c r="HJ17" s="36"/>
+      <c r="HK17" s="36"/>
+      <c r="HL17" s="36"/>
+      <c r="HM17" s="36"/>
+      <c r="HN17" s="36"/>
+      <c r="HO17" s="36"/>
+      <c r="HP17" s="36"/>
+      <c r="HQ17" s="36"/>
+      <c r="HR17" s="36"/>
+      <c r="HS17" s="36"/>
+      <c r="HT17" s="36"/>
+      <c r="HU17" s="36"/>
+      <c r="HV17" s="36"/>
+      <c r="HW17" s="36"/>
+      <c r="HX17" s="36"/>
+      <c r="HY17" s="36"/>
+      <c r="HZ17" s="36"/>
+      <c r="IA17" s="36"/>
+      <c r="IB17" s="36"/>
+      <c r="IC17" s="36"/>
+      <c r="ID17" s="36"/>
+      <c r="IE17" s="36"/>
+      <c r="IF17" s="36"/>
+      <c r="IG17" s="36"/>
+      <c r="IH17" s="36"/>
+      <c r="II17" s="36"/>
+      <c r="IJ17" s="36"/>
+      <c r="IK17" s="36"/>
+      <c r="IL17" s="36"/>
+      <c r="IM17" s="36"/>
+      <c r="IN17" s="36"/>
+      <c r="IO17" s="36"/>
+      <c r="IP17" s="36"/>
+      <c r="IQ17" s="36"/>
+      <c r="IR17" s="36"/>
+      <c r="IS17" s="36"/>
+      <c r="IT17" s="36"/>
+      <c r="IU17" s="36"/>
+      <c r="IV17" s="36"/>
+    </row>
+    <row r="18" spans="1:256" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="37">
         <v>9</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="L18" s="38"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="36"/>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="36"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="36"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="36"/>
+      <c r="CA18" s="36"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="36"/>
+      <c r="CF18" s="36"/>
+      <c r="CG18" s="36"/>
+      <c r="CH18" s="36"/>
+      <c r="CI18" s="36"/>
+      <c r="CJ18" s="36"/>
+      <c r="CK18" s="36"/>
+      <c r="CL18" s="36"/>
+      <c r="CM18" s="36"/>
+      <c r="CN18" s="36"/>
+      <c r="CO18" s="36"/>
+      <c r="CP18" s="36"/>
+      <c r="CQ18" s="36"/>
+      <c r="CR18" s="36"/>
+      <c r="CS18" s="36"/>
+      <c r="CT18" s="36"/>
+      <c r="CU18" s="36"/>
+      <c r="CV18" s="36"/>
+      <c r="CW18" s="36"/>
+      <c r="CX18" s="36"/>
+      <c r="CY18" s="36"/>
+      <c r="CZ18" s="36"/>
+      <c r="DA18" s="36"/>
+      <c r="DB18" s="36"/>
+      <c r="DC18" s="36"/>
+      <c r="DD18" s="36"/>
+      <c r="DE18" s="36"/>
+      <c r="DF18" s="36"/>
+      <c r="DG18" s="36"/>
+      <c r="DH18" s="36"/>
+      <c r="DI18" s="36"/>
+      <c r="DJ18" s="36"/>
+      <c r="DK18" s="36"/>
+      <c r="DL18" s="36"/>
+      <c r="DM18" s="36"/>
+      <c r="DN18" s="36"/>
+      <c r="DO18" s="36"/>
+      <c r="DP18" s="36"/>
+      <c r="DQ18" s="36"/>
+      <c r="DR18" s="36"/>
+      <c r="DS18" s="36"/>
+      <c r="DT18" s="36"/>
+      <c r="DU18" s="36"/>
+      <c r="DV18" s="36"/>
+      <c r="DW18" s="36"/>
+      <c r="DX18" s="36"/>
+      <c r="DY18" s="36"/>
+      <c r="DZ18" s="36"/>
+      <c r="EA18" s="36"/>
+      <c r="EB18" s="36"/>
+      <c r="EC18" s="36"/>
+      <c r="ED18" s="36"/>
+      <c r="EE18" s="36"/>
+      <c r="EF18" s="36"/>
+      <c r="EG18" s="36"/>
+      <c r="EH18" s="36"/>
+      <c r="EI18" s="36"/>
+      <c r="EJ18" s="36"/>
+      <c r="EK18" s="36"/>
+      <c r="EL18" s="36"/>
+      <c r="EM18" s="36"/>
+      <c r="EN18" s="36"/>
+      <c r="EO18" s="36"/>
+      <c r="EP18" s="36"/>
+      <c r="EQ18" s="36"/>
+      <c r="ER18" s="36"/>
+      <c r="ES18" s="36"/>
+      <c r="ET18" s="36"/>
+      <c r="EU18" s="36"/>
+      <c r="EV18" s="36"/>
+      <c r="EW18" s="36"/>
+      <c r="EX18" s="36"/>
+      <c r="EY18" s="36"/>
+      <c r="EZ18" s="36"/>
+      <c r="FA18" s="36"/>
+      <c r="FB18" s="36"/>
+      <c r="FC18" s="36"/>
+      <c r="FD18" s="36"/>
+      <c r="FE18" s="36"/>
+      <c r="FF18" s="36"/>
+      <c r="FG18" s="36"/>
+      <c r="FH18" s="36"/>
+      <c r="FI18" s="36"/>
+      <c r="FJ18" s="36"/>
+      <c r="FK18" s="36"/>
+      <c r="FL18" s="36"/>
+      <c r="FM18" s="36"/>
+      <c r="FN18" s="36"/>
+      <c r="FO18" s="36"/>
+      <c r="FP18" s="36"/>
+      <c r="FQ18" s="36"/>
+      <c r="FR18" s="36"/>
+      <c r="FS18" s="36"/>
+      <c r="FT18" s="36"/>
+      <c r="FU18" s="36"/>
+      <c r="FV18" s="36"/>
+      <c r="FW18" s="36"/>
+      <c r="FX18" s="36"/>
+      <c r="FY18" s="36"/>
+      <c r="FZ18" s="36"/>
+      <c r="GA18" s="36"/>
+      <c r="GB18" s="36"/>
+      <c r="GC18" s="36"/>
+      <c r="GD18" s="36"/>
+      <c r="GE18" s="36"/>
+      <c r="GF18" s="36"/>
+      <c r="GG18" s="36"/>
+      <c r="GH18" s="36"/>
+      <c r="GI18" s="36"/>
+      <c r="GJ18" s="36"/>
+      <c r="GK18" s="36"/>
+      <c r="GL18" s="36"/>
+      <c r="GM18" s="36"/>
+      <c r="GN18" s="36"/>
+      <c r="GO18" s="36"/>
+      <c r="GP18" s="36"/>
+      <c r="GQ18" s="36"/>
+      <c r="GR18" s="36"/>
+      <c r="GS18" s="36"/>
+      <c r="GT18" s="36"/>
+      <c r="GU18" s="36"/>
+      <c r="GV18" s="36"/>
+      <c r="GW18" s="36"/>
+      <c r="GX18" s="36"/>
+      <c r="GY18" s="36"/>
+      <c r="GZ18" s="36"/>
+      <c r="HA18" s="36"/>
+      <c r="HB18" s="36"/>
+      <c r="HC18" s="36"/>
+      <c r="HD18" s="36"/>
+      <c r="HE18" s="36"/>
+      <c r="HF18" s="36"/>
+      <c r="HG18" s="36"/>
+      <c r="HH18" s="36"/>
+      <c r="HI18" s="36"/>
+      <c r="HJ18" s="36"/>
+      <c r="HK18" s="36"/>
+      <c r="HL18" s="36"/>
+      <c r="HM18" s="36"/>
+      <c r="HN18" s="36"/>
+      <c r="HO18" s="36"/>
+      <c r="HP18" s="36"/>
+      <c r="HQ18" s="36"/>
+      <c r="HR18" s="36"/>
+      <c r="HS18" s="36"/>
+      <c r="HT18" s="36"/>
+      <c r="HU18" s="36"/>
+      <c r="HV18" s="36"/>
+      <c r="HW18" s="36"/>
+      <c r="HX18" s="36"/>
+      <c r="HY18" s="36"/>
+      <c r="HZ18" s="36"/>
+      <c r="IA18" s="36"/>
+      <c r="IB18" s="36"/>
+      <c r="IC18" s="36"/>
+      <c r="ID18" s="36"/>
+      <c r="IE18" s="36"/>
+      <c r="IF18" s="36"/>
+      <c r="IG18" s="36"/>
+      <c r="IH18" s="36"/>
+      <c r="II18" s="36"/>
+      <c r="IJ18" s="36"/>
+      <c r="IK18" s="36"/>
+      <c r="IL18" s="36"/>
+      <c r="IM18" s="36"/>
+      <c r="IN18" s="36"/>
+      <c r="IO18" s="36"/>
+      <c r="IP18" s="36"/>
+      <c r="IQ18" s="36"/>
+      <c r="IR18" s="36"/>
+      <c r="IS18" s="36"/>
+      <c r="IT18" s="36"/>
+      <c r="IU18" s="36"/>
+      <c r="IV18" s="36"/>
+    </row>
+    <row r="19" spans="1:256" s="55" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="33">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="34"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="36"/>
+      <c r="BN19" s="36"/>
+      <c r="BO19" s="36"/>
+      <c r="BP19" s="36"/>
+      <c r="BQ19" s="36"/>
+      <c r="BR19" s="36"/>
+      <c r="BS19" s="36"/>
+      <c r="BT19" s="36"/>
+      <c r="BU19" s="36"/>
+      <c r="BV19" s="36"/>
+      <c r="BW19" s="36"/>
+      <c r="BX19" s="36"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="36"/>
+      <c r="CA19" s="36"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36"/>
+      <c r="CE19" s="36"/>
+      <c r="CF19" s="36"/>
+      <c r="CG19" s="36"/>
+      <c r="CH19" s="36"/>
+      <c r="CI19" s="36"/>
+      <c r="CJ19" s="36"/>
+      <c r="CK19" s="36"/>
+      <c r="CL19" s="36"/>
+      <c r="CM19" s="36"/>
+      <c r="CN19" s="36"/>
+      <c r="CO19" s="36"/>
+      <c r="CP19" s="36"/>
+      <c r="CQ19" s="36"/>
+      <c r="CR19" s="36"/>
+      <c r="CS19" s="36"/>
+      <c r="CT19" s="36"/>
+      <c r="CU19" s="36"/>
+      <c r="CV19" s="36"/>
+      <c r="CW19" s="36"/>
+      <c r="CX19" s="36"/>
+      <c r="CY19" s="36"/>
+      <c r="CZ19" s="36"/>
+      <c r="DA19" s="36"/>
+      <c r="DB19" s="36"/>
+      <c r="DC19" s="36"/>
+      <c r="DD19" s="36"/>
+      <c r="DE19" s="36"/>
+      <c r="DF19" s="36"/>
+      <c r="DG19" s="36"/>
+      <c r="DH19" s="36"/>
+      <c r="DI19" s="36"/>
+      <c r="DJ19" s="36"/>
+      <c r="DK19" s="36"/>
+      <c r="DL19" s="36"/>
+      <c r="DM19" s="36"/>
+      <c r="DN19" s="36"/>
+      <c r="DO19" s="36"/>
+      <c r="DP19" s="36"/>
+      <c r="DQ19" s="36"/>
+      <c r="DR19" s="36"/>
+      <c r="DS19" s="36"/>
+      <c r="DT19" s="36"/>
+      <c r="DU19" s="36"/>
+      <c r="DV19" s="36"/>
+      <c r="DW19" s="36"/>
+      <c r="DX19" s="36"/>
+      <c r="DY19" s="36"/>
+      <c r="DZ19" s="36"/>
+      <c r="EA19" s="36"/>
+      <c r="EB19" s="36"/>
+      <c r="EC19" s="36"/>
+      <c r="ED19" s="36"/>
+      <c r="EE19" s="36"/>
+      <c r="EF19" s="36"/>
+      <c r="EG19" s="36"/>
+      <c r="EH19" s="36"/>
+      <c r="EI19" s="36"/>
+      <c r="EJ19" s="36"/>
+      <c r="EK19" s="36"/>
+      <c r="EL19" s="36"/>
+      <c r="EM19" s="36"/>
+      <c r="EN19" s="36"/>
+      <c r="EO19" s="36"/>
+      <c r="EP19" s="36"/>
+      <c r="EQ19" s="36"/>
+      <c r="ER19" s="36"/>
+      <c r="ES19" s="36"/>
+      <c r="ET19" s="36"/>
+      <c r="EU19" s="36"/>
+      <c r="EV19" s="36"/>
+      <c r="EW19" s="36"/>
+      <c r="EX19" s="36"/>
+      <c r="EY19" s="36"/>
+      <c r="EZ19" s="36"/>
+      <c r="FA19" s="36"/>
+      <c r="FB19" s="36"/>
+      <c r="FC19" s="36"/>
+      <c r="FD19" s="36"/>
+      <c r="FE19" s="36"/>
+      <c r="FF19" s="36"/>
+      <c r="FG19" s="36"/>
+      <c r="FH19" s="36"/>
+      <c r="FI19" s="36"/>
+      <c r="FJ19" s="36"/>
+      <c r="FK19" s="36"/>
+      <c r="FL19" s="36"/>
+      <c r="FM19" s="36"/>
+      <c r="FN19" s="36"/>
+      <c r="FO19" s="36"/>
+      <c r="FP19" s="36"/>
+      <c r="FQ19" s="36"/>
+      <c r="FR19" s="36"/>
+      <c r="FS19" s="36"/>
+      <c r="FT19" s="36"/>
+      <c r="FU19" s="36"/>
+      <c r="FV19" s="36"/>
+      <c r="FW19" s="36"/>
+      <c r="FX19" s="36"/>
+      <c r="FY19" s="36"/>
+      <c r="FZ19" s="36"/>
+      <c r="GA19" s="36"/>
+      <c r="GB19" s="36"/>
+      <c r="GC19" s="36"/>
+      <c r="GD19" s="36"/>
+      <c r="GE19" s="36"/>
+      <c r="GF19" s="36"/>
+      <c r="GG19" s="36"/>
+      <c r="GH19" s="36"/>
+      <c r="GI19" s="36"/>
+      <c r="GJ19" s="36"/>
+      <c r="GK19" s="36"/>
+      <c r="GL19" s="36"/>
+      <c r="GM19" s="36"/>
+      <c r="GN19" s="36"/>
+      <c r="GO19" s="36"/>
+      <c r="GP19" s="36"/>
+      <c r="GQ19" s="36"/>
+      <c r="GR19" s="36"/>
+      <c r="GS19" s="36"/>
+      <c r="GT19" s="36"/>
+      <c r="GU19" s="36"/>
+      <c r="GV19" s="36"/>
+      <c r="GW19" s="36"/>
+      <c r="GX19" s="36"/>
+      <c r="GY19" s="36"/>
+      <c r="GZ19" s="36"/>
+      <c r="HA19" s="36"/>
+      <c r="HB19" s="36"/>
+      <c r="HC19" s="36"/>
+      <c r="HD19" s="36"/>
+      <c r="HE19" s="36"/>
+      <c r="HF19" s="36"/>
+      <c r="HG19" s="36"/>
+      <c r="HH19" s="36"/>
+      <c r="HI19" s="36"/>
+      <c r="HJ19" s="36"/>
+      <c r="HK19" s="36"/>
+      <c r="HL19" s="36"/>
+      <c r="HM19" s="36"/>
+      <c r="HN19" s="36"/>
+      <c r="HO19" s="36"/>
+      <c r="HP19" s="36"/>
+      <c r="HQ19" s="36"/>
+      <c r="HR19" s="36"/>
+      <c r="HS19" s="36"/>
+      <c r="HT19" s="36"/>
+      <c r="HU19" s="36"/>
+      <c r="HV19" s="36"/>
+      <c r="HW19" s="36"/>
+      <c r="HX19" s="36"/>
+      <c r="HY19" s="36"/>
+      <c r="HZ19" s="36"/>
+      <c r="IA19" s="36"/>
+      <c r="IB19" s="36"/>
+      <c r="IC19" s="36"/>
+      <c r="ID19" s="36"/>
+      <c r="IE19" s="36"/>
+      <c r="IF19" s="36"/>
+      <c r="IG19" s="36"/>
+      <c r="IH19" s="36"/>
+      <c r="II19" s="36"/>
+      <c r="IJ19" s="36"/>
+      <c r="IK19" s="36"/>
+      <c r="IL19" s="36"/>
+      <c r="IM19" s="36"/>
+      <c r="IN19" s="36"/>
+      <c r="IO19" s="36"/>
+      <c r="IP19" s="36"/>
+      <c r="IQ19" s="36"/>
+      <c r="IR19" s="36"/>
+      <c r="IS19" s="36"/>
+      <c r="IT19" s="36"/>
+      <c r="IU19" s="36"/>
+      <c r="IV19" s="36"/>
+    </row>
+    <row r="20" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33">
@@ -4892,7 +6053,7 @@
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
     </row>
-    <row r="21" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37">
@@ -4928,7 +6089,7 @@
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
     </row>
-    <row r="22" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37">
@@ -4962,7 +6123,7 @@
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
     </row>
-    <row r="23" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="33">
@@ -4996,11 +6157,9 @@
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
     </row>
-    <row r="24" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B24" s="38"/>
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5030,7 +6189,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="1:16" s="36" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" s="36" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -5064,7 +6223,7 @@
       <c r="O25" s="43"/>
       <c r="P25" s="43"/>
     </row>
-    <row r="26" spans="1:16" s="36" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:256" s="36" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
       <c r="C26" s="51">
@@ -5098,11 +6257,9 @@
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
     </row>
-    <row r="27" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38"/>
-      <c r="B27" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B27" s="38"/>
       <c r="C27" s="37">
         <v>23</v>
       </c>
@@ -5132,11 +6289,9 @@
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
     </row>
-    <row r="28" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
-      <c r="B28" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="33">
         <v>24</v>
       </c>
@@ -5164,11 +6319,9 @@
       <c r="O28" s="35"/>
       <c r="P28" s="35"/>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="38"/>
-      <c r="B29" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="37">
         <v>25</v>
       </c>
@@ -5198,11 +6351,9 @@
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
     </row>
-    <row r="30" spans="1:16" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:256" s="36" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
-      <c r="B30" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B30" s="38"/>
       <c r="C30" s="33">
         <v>17</v>
       </c>
@@ -5232,11 +6383,9 @@
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
     </row>
-    <row r="31" spans="1:16" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:256" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
-      <c r="B31" s="38" t="s">
-        <v>248</v>
-      </c>
+      <c r="B31" s="38"/>
       <c r="C31" s="33">
         <v>19</v>
       </c>
@@ -5266,7 +6415,7 @@
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
     </row>
-    <row r="32" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -5365,544 +6514,544 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="58"/>
     </row>
     <row r="37" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
+      <c r="A37" s="59"/>
     </row>
     <row r="38" spans="1:16" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="60"/>
     </row>
     <row r="39" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="66"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
+      <c r="A40" s="62"/>
     </row>
     <row r="41" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" spans="1:16" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="68"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="68"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="68"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="68"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="68"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="68"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="68"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="68"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="68"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="68"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="68"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
+      <c r="A69" s="63"/>
     </row>
     <row r="70" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
+      <c r="A70" s="63"/>
     </row>
     <row r="71" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
+      <c r="A71" s="63"/>
     </row>
     <row r="72" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="68"/>
+      <c r="A72" s="63"/>
     </row>
     <row r="73" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
+      <c r="A73" s="63"/>
     </row>
     <row r="74" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
+      <c r="A74" s="63"/>
     </row>
     <row r="75" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
+      <c r="A75" s="63"/>
     </row>
     <row r="76" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68"/>
+      <c r="A76" s="63"/>
     </row>
     <row r="77" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
+      <c r="A77" s="63"/>
     </row>
     <row r="78" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="68"/>
+      <c r="A78" s="63"/>
     </row>
     <row r="79" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
+      <c r="A79" s="63"/>
     </row>
     <row r="80" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="68"/>
+      <c r="A80" s="63"/>
     </row>
     <row r="81" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="68"/>
+      <c r="A81" s="63"/>
     </row>
     <row r="82" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="68"/>
+      <c r="A82" s="63"/>
     </row>
     <row r="83" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
+      <c r="A83" s="63"/>
     </row>
     <row r="84" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="68"/>
+      <c r="A84" s="63"/>
     </row>
     <row r="85" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
+      <c r="A85" s="63"/>
     </row>
     <row r="86" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="68"/>
+      <c r="A86" s="63"/>
     </row>
     <row r="87" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="68"/>
+      <c r="A87" s="63"/>
     </row>
     <row r="88" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="68"/>
+      <c r="A88" s="63"/>
     </row>
     <row r="89" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
+      <c r="A89" s="63"/>
     </row>
     <row r="90" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="68"/>
+      <c r="A90" s="63"/>
     </row>
     <row r="91" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
+      <c r="A91" s="63"/>
     </row>
     <row r="92" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="68"/>
+      <c r="A92" s="63"/>
     </row>
     <row r="93" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="68"/>
+      <c r="A93" s="63"/>
     </row>
     <row r="94" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="68"/>
+      <c r="A94" s="63"/>
     </row>
     <row r="95" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
+      <c r="A95" s="63"/>
     </row>
     <row r="96" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
+      <c r="A96" s="63"/>
     </row>
     <row r="97" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="68"/>
+      <c r="A97" s="63"/>
     </row>
     <row r="98" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
+      <c r="A98" s="63"/>
     </row>
     <row r="99" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
+      <c r="A99" s="63"/>
     </row>
     <row r="100" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
+      <c r="A100" s="63"/>
     </row>
     <row r="101" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
+      <c r="A101" s="63"/>
     </row>
     <row r="102" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="68"/>
+      <c r="A102" s="63"/>
     </row>
     <row r="103" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="68"/>
+      <c r="A103" s="63"/>
     </row>
     <row r="104" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="68"/>
+      <c r="A104" s="63"/>
     </row>
     <row r="105" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
+      <c r="A105" s="63"/>
     </row>
     <row r="106" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
+      <c r="A106" s="63"/>
     </row>
     <row r="107" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
+      <c r="A107" s="63"/>
     </row>
     <row r="108" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="68"/>
+      <c r="A108" s="63"/>
     </row>
     <row r="109" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68"/>
+      <c r="A109" s="63"/>
     </row>
     <row r="110" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
+      <c r="A110" s="63"/>
     </row>
     <row r="111" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="68"/>
+      <c r="A111" s="63"/>
     </row>
     <row r="112" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
+      <c r="A112" s="63"/>
     </row>
     <row r="113" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="68"/>
+      <c r="A113" s="63"/>
     </row>
     <row r="114" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="68"/>
+      <c r="A114" s="63"/>
     </row>
     <row r="115" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="68"/>
+      <c r="A115" s="63"/>
     </row>
     <row r="116" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="68"/>
+      <c r="A116" s="63"/>
     </row>
     <row r="117" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="68"/>
+      <c r="A117" s="63"/>
     </row>
     <row r="118" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="68"/>
+      <c r="A118" s="63"/>
     </row>
     <row r="119" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="68"/>
+      <c r="A119" s="63"/>
     </row>
     <row r="120" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="68"/>
+      <c r="A120" s="63"/>
     </row>
     <row r="121" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
+      <c r="A121" s="63"/>
     </row>
     <row r="122" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="68"/>
+      <c r="A122" s="63"/>
     </row>
     <row r="123" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="68"/>
+      <c r="A123" s="63"/>
     </row>
     <row r="124" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="68"/>
+      <c r="A124" s="63"/>
     </row>
     <row r="125" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="68"/>
+      <c r="A125" s="63"/>
     </row>
     <row r="126" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="68"/>
+      <c r="A126" s="63"/>
     </row>
     <row r="127" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="68"/>
+      <c r="A127" s="63"/>
     </row>
     <row r="128" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="68"/>
+      <c r="A128" s="63"/>
     </row>
     <row r="129" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="68"/>
+      <c r="A129" s="63"/>
     </row>
     <row r="130" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="68"/>
+      <c r="A130" s="63"/>
     </row>
     <row r="131" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="68"/>
+      <c r="A131" s="63"/>
     </row>
     <row r="132" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="68"/>
+      <c r="A132" s="63"/>
     </row>
     <row r="133" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="68"/>
+      <c r="A133" s="63"/>
     </row>
     <row r="134" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="68"/>
+      <c r="A134" s="63"/>
     </row>
     <row r="135" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="68"/>
+      <c r="A135" s="63"/>
     </row>
     <row r="136" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="68"/>
+      <c r="A136" s="63"/>
     </row>
     <row r="137" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="68"/>
+      <c r="A137" s="63"/>
     </row>
     <row r="138" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="68"/>
+      <c r="A138" s="63"/>
     </row>
     <row r="139" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="68"/>
+      <c r="A139" s="63"/>
     </row>
     <row r="140" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="68"/>
+      <c r="A140" s="63"/>
     </row>
     <row r="141" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="68"/>
+      <c r="A141" s="63"/>
     </row>
     <row r="142" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="68"/>
+      <c r="A142" s="63"/>
     </row>
     <row r="143" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="68"/>
+      <c r="A143" s="63"/>
     </row>
     <row r="144" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="68"/>
+      <c r="A144" s="63"/>
     </row>
     <row r="145" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="68"/>
+      <c r="A145" s="63"/>
     </row>
     <row r="146" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="68"/>
+      <c r="A146" s="63"/>
     </row>
     <row r="147" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="68"/>
+      <c r="A147" s="63"/>
     </row>
     <row r="148" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="68"/>
+      <c r="A148" s="63"/>
     </row>
     <row r="149" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="68"/>
+      <c r="A149" s="63"/>
     </row>
     <row r="150" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="68"/>
+      <c r="A150" s="63"/>
     </row>
     <row r="151" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="68"/>
+      <c r="A151" s="63"/>
     </row>
     <row r="152" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="68"/>
+      <c r="A152" s="63"/>
     </row>
     <row r="153" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="68"/>
+      <c r="A153" s="63"/>
     </row>
     <row r="154" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="68"/>
+      <c r="A154" s="63"/>
     </row>
     <row r="155" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="68"/>
+      <c r="A155" s="63"/>
     </row>
     <row r="156" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="68"/>
+      <c r="A156" s="63"/>
     </row>
     <row r="157" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="68"/>
+      <c r="A157" s="63"/>
     </row>
     <row r="158" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="68"/>
+      <c r="A158" s="63"/>
     </row>
     <row r="159" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="68"/>
+      <c r="A159" s="63"/>
     </row>
     <row r="160" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="68"/>
+      <c r="A160" s="63"/>
     </row>
     <row r="161" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="68"/>
+      <c r="A161" s="63"/>
     </row>
     <row r="162" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="68"/>
+      <c r="A162" s="63"/>
     </row>
     <row r="163" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="68"/>
+      <c r="A163" s="63"/>
     </row>
     <row r="164" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="68"/>
+      <c r="A164" s="63"/>
     </row>
     <row r="165" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="68"/>
+      <c r="A165" s="63"/>
     </row>
     <row r="166" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="68"/>
+      <c r="A166" s="63"/>
     </row>
     <row r="167" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="68"/>
+      <c r="A167" s="63"/>
     </row>
     <row r="168" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="68"/>
+      <c r="A168" s="63"/>
     </row>
     <row r="169" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="68"/>
+      <c r="A169" s="63"/>
     </row>
     <row r="170" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="68"/>
+      <c r="A170" s="63"/>
     </row>
     <row r="171" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="68"/>
+      <c r="A171" s="63"/>
     </row>
     <row r="172" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="68"/>
+      <c r="A172" s="63"/>
     </row>
     <row r="173" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="68"/>
+      <c r="A173" s="63"/>
     </row>
     <row r="174" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="68"/>
+      <c r="A174" s="63"/>
     </row>
     <row r="175" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="68"/>
+      <c r="A175" s="63"/>
     </row>
     <row r="176" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="68"/>
+      <c r="A176" s="63"/>
     </row>
     <row r="177" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="68"/>
+      <c r="A177" s="63"/>
     </row>
     <row r="178" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="68"/>
+      <c r="A178" s="63"/>
     </row>
     <row r="179" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="68"/>
+      <c r="A179" s="63"/>
     </row>
     <row r="180" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="68"/>
+      <c r="A180" s="63"/>
     </row>
     <row r="181" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="68"/>
+      <c r="A181" s="63"/>
     </row>
     <row r="182" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="68"/>
+      <c r="A182" s="63"/>
     </row>
     <row r="183" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="68"/>
+      <c r="A183" s="63"/>
     </row>
     <row r="184" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="68"/>
+      <c r="A184" s="63"/>
     </row>
     <row r="185" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="68"/>
+      <c r="A185" s="63"/>
     </row>
     <row r="186" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="68"/>
+      <c r="A186" s="63"/>
     </row>
     <row r="187" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="68"/>
+      <c r="A187" s="63"/>
     </row>
     <row r="188" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="68"/>
+      <c r="A188" s="63"/>
     </row>
     <row r="189" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="68"/>
+      <c r="A189" s="63"/>
     </row>
     <row r="190" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="68"/>
+      <c r="A190" s="63"/>
     </row>
     <row r="191" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="68"/>
+      <c r="A191" s="63"/>
     </row>
     <row r="192" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="68"/>
+      <c r="A192" s="63"/>
     </row>
     <row r="193" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="68"/>
+      <c r="A193" s="63"/>
     </row>
     <row r="194" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="68"/>
+      <c r="A194" s="63"/>
     </row>
     <row r="195" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="68"/>
+      <c r="A195" s="63"/>
     </row>
     <row r="196" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="68"/>
+      <c r="A196" s="63"/>
     </row>
     <row r="197" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="68"/>
+      <c r="A197" s="63"/>
     </row>
     <row r="198" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="68"/>
+      <c r="A198" s="63"/>
     </row>
     <row r="199" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="68"/>
+      <c r="A199" s="63"/>
     </row>
     <row r="200" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="68"/>
+      <c r="A200" s="63"/>
     </row>
     <row r="201" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="68"/>
+      <c r="A201" s="63"/>
     </row>
     <row r="202" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="68"/>
+      <c r="A202" s="63"/>
     </row>
     <row r="203" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="68"/>
+      <c r="A203" s="63"/>
     </row>
     <row r="204" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="68"/>
+      <c r="A204" s="63"/>
     </row>
     <row r="205" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="68"/>
+      <c r="A205" s="63"/>
     </row>
     <row r="206" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="68"/>
+      <c r="A206" s="63"/>
     </row>
     <row r="207" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="68"/>
+      <c r="A207" s="63"/>
     </row>
     <row r="208" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="68"/>
+      <c r="A208" s="63"/>
     </row>
     <row r="209" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="68"/>
+      <c r="A209" s="63"/>
     </row>
     <row r="210" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="68"/>
+      <c r="A210" s="63"/>
     </row>
     <row r="211" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="68"/>
+      <c r="A211" s="63"/>
     </row>
     <row r="212" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="68"/>
+      <c r="A212" s="63"/>
     </row>
     <row r="213" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="68"/>
+      <c r="A213" s="63"/>
     </row>
     <row r="214" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="68"/>
+      <c r="A214" s="63"/>
     </row>
     <row r="215" spans="1:1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="68"/>
+      <c r="A215" s="63"/>
     </row>
   </sheetData>
   <sortState ref="C2:N35">
@@ -5927,7 +7076,7 @@
   <dimension ref="A1:IV35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5960,17 +7109,17 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="53" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="55"/>
+      <c r="L1" s="70"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -7157,7 +8306,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7166,18 +8315,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>150</v>
+      </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>150</v>
+      <c r="A2" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -7185,10 +8338,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -7196,10 +8349,10 @@
     </row>
     <row r="4" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -7207,10 +8360,10 @@
     </row>
     <row r="5" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -7218,10 +8371,10 @@
     </row>
     <row r="6" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -7229,10 +8382,10 @@
     </row>
     <row r="7" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -7240,32 +8393,32 @@
     </row>
     <row r="8" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>162</v>
+      <c r="A9" s="65" t="s">
+        <v>235</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
-        <v>235</v>
+      <c r="A10" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -7273,10 +8426,10 @@
     </row>
     <row r="11" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -7284,10 +8437,10 @@
     </row>
     <row r="12" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -7295,22 +8448,16 @@
     </row>
     <row r="13" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>173</v>
-      </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -7343,7 +8490,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7373,7 +8520,7 @@
       <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="53" t="s">
         <v>181</v>
       </c>
       <c r="C3" s="27"/>
@@ -7384,7 +8531,7 @@
       <c r="A4" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="54" t="s">
         <v>182</v>
       </c>
       <c r="C4" s="27"/>
@@ -7395,7 +8542,7 @@
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="54" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="27"/>
@@ -7406,7 +8553,7 @@
       <c r="A6" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="54" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="27"/>
@@ -7417,7 +8564,7 @@
       <c r="A7" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>185</v>
       </c>
       <c r="C7" s="27"/>
@@ -7428,7 +8575,7 @@
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="54" t="s">
         <v>186</v>
       </c>
       <c r="C8" s="27"/>
@@ -7439,7 +8586,7 @@
       <c r="A9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>187</v>
       </c>
       <c r="C9" s="27"/>
@@ -7450,7 +8597,7 @@
       <c r="A10" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="54" t="s">
         <v>192</v>
       </c>
       <c r="C10" s="27"/>
@@ -7458,10 +8605,10 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="57" t="s">
         <v>194</v>
       </c>
       <c r="C11" s="24"/>
@@ -7469,57 +8616,65 @@
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>251</v>
+      </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>253</v>
+      </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="58"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
-      <c r="B15" s="58"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
-      <c r="B16" s="58"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
-      <c r="B17" s="58"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -7536,10 +8691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7551,7 +8706,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="64" t="s">
         <v>197</v>
       </c>
       <c r="C1">
@@ -7615,7 +8770,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="64" t="s">
         <v>222</v>
       </c>
       <c r="D6">
@@ -7623,38 +8778,38 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="64" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="64" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="64" t="s">
         <v>221</v>
       </c>
       <c r="E10">
@@ -7662,10 +8817,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="64" t="s">
         <v>202</v>
       </c>
       <c r="K11">
@@ -7673,10 +8828,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="64" t="s">
         <v>203</v>
       </c>
       <c r="K12">
@@ -7684,10 +8839,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>204</v>
       </c>
       <c r="K13">
@@ -7695,10 +8850,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="64" t="s">
         <v>209</v>
       </c>
       <c r="K14">
@@ -7706,8 +8861,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K15">
@@ -7715,7 +8870,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="64" t="s">
         <v>228</v>
       </c>
       <c r="K16">
@@ -7723,7 +8878,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="64" t="s">
         <v>211</v>
       </c>
       <c r="D17">
@@ -7731,16 +8886,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="64"/>
       <c r="D18">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="64" t="s">
         <v>211</v>
       </c>
       <c r="D19">
@@ -7748,29 +8903,29 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="64">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="64" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="64" t="s">
         <v>231</v>
       </c>
       <c r="F22">
@@ -7800,18 +8955,18 @@
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="64" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="66" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7830,7 +8985,7 @@
       <c r="B29" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="66" t="s">
         <v>240</v>
       </c>
     </row>
@@ -7838,18 +8993,18 @@
       <c r="A30">
         <v>1010</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="64" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="64" t="s">
         <v>244</v>
       </c>
       <c r="B31" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="66" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7860,7 +9015,7 @@
       <c r="B32" t="s">
         <v>238</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="66" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7868,7 +9023,7 @@
       <c r="A33">
         <v>10000</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="64" t="s">
         <v>247</v>
       </c>
       <c r="K33">
@@ -7887,7 +9042,7 @@
       <c r="A35">
         <v>10100</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="64" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7905,6 +9060,191 @@
       </c>
       <c r="C37">
         <v>1101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1010</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10010</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10100</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="64">
+        <v>10110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>260</v>
+      </c>
+      <c r="J50">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>11000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11100</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11110</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>100000</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>100010</v>
+      </c>
+      <c r="B56" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="64" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -7930,15 +9270,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>

--- a/doc/指令.xlsx
+++ b/doc/指令.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyun\Documents\Code\THCO-MIPS\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyun\Documents\Code\THCO-MIPS-LATEST_\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="7965"/>
+    <workbookView minimized="1" xWindow="0" yWindow="45" windowWidth="15960" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="指令总结 (2)" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="279">
   <si>
     <t>编号</t>
   </si>
@@ -1171,6 +1171,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>1100</t>
     </r>
@@ -1254,6 +1255,10 @@
   </si>
   <si>
     <t>空泡/1010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前计算</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2933,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IX215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3532,7 +3537,7 @@
     </row>
     <row r="4" spans="1:258" s="55" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="33">
